--- a/src/attributions/attributions_ig_traj_406.xlsx
+++ b/src/attributions/attributions_ig_traj_406.xlsx
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>-0</v>
@@ -1603,13 +1603,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>-0</v>
@@ -1630,13 +1630,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>-0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
         <v>-0</v>
@@ -1684,13 +1684,13 @@
         <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM3" t="n">
         <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
         <v>-0</v>
@@ -1711,13 +1711,13 @@
         <v>0</v>
       </c>
       <c r="AU3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV3" t="n">
         <v>0</v>
       </c>
       <c r="AW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX3" t="n">
         <v>-0</v>
@@ -1738,13 +1738,13 @@
         <v>0</v>
       </c>
       <c r="BD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE3" t="n">
         <v>0</v>
       </c>
       <c r="BF3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG3" t="n">
         <v>-0</v>
@@ -1765,13 +1765,13 @@
         <v>0</v>
       </c>
       <c r="BM3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN3" t="n">
         <v>0</v>
       </c>
       <c r="BO3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BP3" t="n">
         <v>-0</v>
@@ -1792,13 +1792,13 @@
         <v>0</v>
       </c>
       <c r="BV3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW3" t="n">
         <v>0</v>
       </c>
       <c r="BX3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY3" t="n">
         <v>-0</v>
@@ -1819,13 +1819,13 @@
         <v>0</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF3" t="n">
         <v>0</v>
       </c>
       <c r="CG3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH3" t="n">
         <v>-0</v>
@@ -1846,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="CN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO3" t="n">
         <v>0</v>
       </c>
       <c r="CP3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ3" t="n">
         <v>-0</v>
@@ -1900,13 +1900,13 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG3" t="n">
         <v>0</v>
       </c>
       <c r="DH3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DI3" t="n">
         <v>-0</v>
@@ -1927,13 +1927,13 @@
         <v>0</v>
       </c>
       <c r="DO3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP3" t="n">
         <v>0</v>
       </c>
       <c r="DQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR3" t="n">
         <v>-0</v>
@@ -1981,13 +1981,13 @@
         <v>0</v>
       </c>
       <c r="EG3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH3" t="n">
         <v>0</v>
       </c>
       <c r="EI3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ3" t="n">
         <v>-0</v>
@@ -2008,13 +2008,13 @@
         <v>0</v>
       </c>
       <c r="EP3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ3" t="n">
         <v>0</v>
       </c>
       <c r="ER3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES3" t="n">
         <v>-0</v>
@@ -2035,13 +2035,13 @@
         <v>0</v>
       </c>
       <c r="EY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ3" t="n">
         <v>0</v>
       </c>
       <c r="FA3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB3" t="n">
         <v>-0</v>
@@ -2062,13 +2062,13 @@
         <v>0</v>
       </c>
       <c r="FH3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI3" t="n">
         <v>0</v>
       </c>
       <c r="FJ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FK3" t="n">
         <v>-0</v>
@@ -2145,19 +2145,19 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.04522976844838115</v>
+        <v>0.06046117823093826</v>
       </c>
       <c r="C4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07776913286611156</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01551427779347657</v>
+        <v>-0.007909739316766725</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0.03617143756747623</v>
       </c>
       <c r="G4" t="n">
         <v>-0</v>
@@ -2166,52 +2166,52 @@
         <v>-0</v>
       </c>
       <c r="I4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.0617834702211781</v>
+        <v>0.03869436029250251</v>
       </c>
       <c r="L4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04376676651654322</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0121590893347011</v>
+        <v>-0.01584144556643187</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>-0.06430262375880059</v>
       </c>
       <c r="P4" t="n">
         <v>-0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R4" t="n">
         <v>-0</v>
       </c>
       <c r="S4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>8.27509684138392e-12</v>
+        <v>0.00200062756105706</v>
       </c>
       <c r="U4" t="n">
         <v>-0</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.01235357025676285</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.01482492921905427</v>
+        <v>-0.00263789724914463</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>8.34528595198629e-12</v>
       </c>
       <c r="Y4" t="n">
         <v>-0</v>
@@ -2220,25 +2220,25 @@
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.08041368867138585</v>
+        <v>0.01986167215863759</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.09257416424996225</v>
+        <v>-0</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.09457433652010704</v>
+        <v>0.03824757892808039</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>0.005168229871760966</v>
       </c>
       <c r="AH4" t="n">
         <v>-0</v>
@@ -2250,49 +2250,49 @@
         <v>-0</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AL4" t="n">
-        <v>-0.0609716964621731</v>
+        <v>0.01030283230740666</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.004773716248920494</v>
+        <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>-0.0139706959200242</v>
+        <v>-0.01633301706257478</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0</v>
+        <v>-0.02685618701599195</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU4" t="n">
-        <v>-0.1456334811210707</v>
+        <v>0.07492587708764775</v>
       </c>
       <c r="AV4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.02906006663244042</v>
+        <v>0</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.03539721224483559</v>
+        <v>0.007006897825721201</v>
       </c>
       <c r="AY4" t="n">
-        <v>0</v>
+        <v>-0.0567577465706859</v>
       </c>
       <c r="AZ4" t="n">
         <v>0</v>
@@ -2307,19 +2307,19 @@
         <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>-0.01670037709596393</v>
+        <v>0.02118179993818275</v>
       </c>
       <c r="BE4" t="n">
         <v>0</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.05884147938821881</v>
+        <v>0</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.01903678064522289</v>
+        <v>-0.03479730942526374</v>
       </c>
       <c r="BH4" t="n">
-        <v>-0</v>
+        <v>-0.02496470911223424</v>
       </c>
       <c r="BI4" t="n">
         <v>-0</v>
@@ -2331,25 +2331,25 @@
         <v>-0</v>
       </c>
       <c r="BL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.05052236616574032</v>
+        <v>0.02702503009650351</v>
       </c>
       <c r="BN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.05202845779046213</v>
+        <v>-0</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.02498367696791507</v>
+        <v>-0.002543390464120831</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0</v>
+        <v>0.01371765622129902</v>
       </c>
       <c r="BR4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS4" t="n">
         <v>0</v>
@@ -2358,52 +2358,52 @@
         <v>0</v>
       </c>
       <c r="BU4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV4" t="n">
-        <v>-0.01284980561448413</v>
+        <v>0.04767116005597702</v>
       </c>
       <c r="BW4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.08589811372364278</v>
+        <v>0</v>
       </c>
       <c r="BY4" t="n">
-        <v>-0.01976229842057495</v>
+        <v>-0.01735994516277115</v>
       </c>
       <c r="BZ4" t="n">
-        <v>-0</v>
+        <v>-0.0009443090439617647</v>
       </c>
       <c r="CA4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC4" t="n">
         <v>0</v>
       </c>
       <c r="CD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.04972160776108055</v>
+        <v>-0.02567106481714602</v>
       </c>
       <c r="CF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG4" t="n">
-        <v>-0.03052668237686902</v>
+        <v>-0</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.02702275430197365</v>
+        <v>-0.002414153016751877</v>
       </c>
       <c r="CI4" t="n">
-        <v>0</v>
+        <v>0.03981135037265942</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK4" t="n">
         <v>0</v>
@@ -2415,19 +2415,19 @@
         <v>-0</v>
       </c>
       <c r="CN4" t="n">
-        <v>-0.00175293190739888</v>
+        <v>0.009927755335786584</v>
       </c>
       <c r="CO4" t="n">
         <v>-0</v>
       </c>
       <c r="CP4" t="n">
-        <v>-0.007388756071275517</v>
+        <v>0</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.06407346743616596</v>
+        <v>0.005147383337092406</v>
       </c>
       <c r="CR4" t="n">
-        <v>0</v>
+        <v>-0.004187654761935099</v>
       </c>
       <c r="CS4" t="n">
         <v>0</v>
@@ -2439,22 +2439,22 @@
         <v>0</v>
       </c>
       <c r="CV4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.05017848569421935</v>
+        <v>-0.01848491243654645</v>
       </c>
       <c r="CX4" t="n">
         <v>-0</v>
       </c>
       <c r="CY4" t="n">
-        <v>-0.02517850722900992</v>
+        <v>0</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.01500576014206861</v>
+        <v>-0.009635289768188775</v>
       </c>
       <c r="DA4" t="n">
-        <v>-0</v>
+        <v>0.04072548189887725</v>
       </c>
       <c r="DB4" t="n">
         <v>-0</v>
@@ -2466,49 +2466,49 @@
         <v>-0</v>
       </c>
       <c r="DE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.1584321566832567</v>
+        <v>-0.02772221182754773</v>
       </c>
       <c r="DG4" t="n">
         <v>0</v>
       </c>
       <c r="DH4" t="n">
-        <v>-0.02258859495912979</v>
+        <v>-0</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.02750847803989901</v>
+        <v>0.01568108709807477</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0</v>
+        <v>0.08356575704655415</v>
       </c>
       <c r="DK4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL4" t="n">
         <v>0</v>
       </c>
       <c r="DM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO4" t="n">
-        <v>-0.04992330539590318</v>
+        <v>-0.01666151858245649</v>
       </c>
       <c r="DP4" t="n">
         <v>0</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.03227924601834948</v>
+        <v>-0</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.1027433590005873</v>
+        <v>0.01649226782566926</v>
       </c>
       <c r="DS4" t="n">
-        <v>-0</v>
+        <v>0.004565776975986806</v>
       </c>
       <c r="DT4" t="n">
         <v>0</v>
@@ -2520,22 +2520,22 @@
         <v>-0</v>
       </c>
       <c r="DW4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0.06850146806460455</v>
+        <v>0.004131457518795471</v>
       </c>
       <c r="DY4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.07245160909148081</v>
+        <v>0</v>
       </c>
       <c r="EA4" t="n">
-        <v>-0.001969983017375714</v>
+        <v>-0.003328792310246043</v>
       </c>
       <c r="EB4" t="n">
-        <v>-0</v>
+        <v>-0.03499527296410509</v>
       </c>
       <c r="EC4" t="n">
         <v>-0</v>
@@ -2544,31 +2544,31 @@
         <v>-0</v>
       </c>
       <c r="EE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.04894472961345062</v>
+        <v>-0.00475169552876662</v>
       </c>
       <c r="EH4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI4" t="n">
-        <v>-0.04184366326091905</v>
+        <v>0</v>
       </c>
       <c r="EJ4" t="n">
-        <v>-0.07598702181436409</v>
+        <v>-0.002662632482419291</v>
       </c>
       <c r="EK4" t="n">
-        <v>-0</v>
+        <v>0.006779651477541583</v>
       </c>
       <c r="EL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN4" t="n">
         <v>0</v>
@@ -2577,127 +2577,127 @@
         <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.04491623101648798</v>
+        <v>-0.008474771376733036</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER4" t="n">
-        <v>-0.01259967418054275</v>
+        <v>0</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.03741691978474202</v>
+        <v>-0.01579659127930758</v>
       </c>
       <c r="ET4" t="n">
-        <v>0</v>
+        <v>0.05451194481833147</v>
       </c>
       <c r="EU4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV4" t="n">
         <v>0</v>
       </c>
       <c r="EW4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.03582378042459489</v>
+        <v>-0.02082585527283086</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA4" t="n">
-        <v>-0.01709653583758617</v>
+        <v>0</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.02685581812160655</v>
+        <v>-0.006182685100318832</v>
       </c>
       <c r="FC4" t="n">
-        <v>0</v>
+        <v>0.03802622771347527</v>
       </c>
       <c r="FD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE4" t="n">
         <v>0</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG4" t="n">
         <v>0</v>
       </c>
       <c r="FH4" t="n">
-        <v>0.004897767004214197</v>
+        <v>-0.02038197956518871</v>
       </c>
       <c r="FI4" t="n">
         <v>0</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0.0006558551247243449</v>
+        <v>-0</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.02752533594439042</v>
+        <v>-0.01954147123197263</v>
       </c>
       <c r="FL4" t="n">
-        <v>0</v>
+        <v>0.00756597236182991</v>
       </c>
       <c r="FM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO4" t="n">
         <v>0</v>
       </c>
       <c r="FP4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>-0.01174405402832294</v>
+        <v>-0.008057711923515334</v>
       </c>
       <c r="FR4" t="n">
         <v>0</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.07572620258837155</v>
+        <v>0</v>
       </c>
       <c r="FT4" t="n">
-        <v>-0.01908472267604661</v>
+        <v>-0.008076691247551627</v>
       </c>
       <c r="FU4" t="n">
-        <v>0</v>
+        <v>0.04782908731962061</v>
       </c>
       <c r="FV4" t="n">
         <v>-0</v>
       </c>
       <c r="FW4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY4" t="n">
         <v>-0</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.02593150387532642</v>
+        <v>-0.03546251249547273</v>
       </c>
       <c r="GA4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.07847259475650051</v>
+        <v>-0</v>
       </c>
       <c r="GC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD4" t="n">
-        <v>-0</v>
+        <v>-0.008833321501767646</v>
       </c>
       <c r="GE4" t="n">
         <v>0</v>
@@ -2706,51 +2706,51 @@
         <v>-0</v>
       </c>
       <c r="GG4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>-0</v>
+        <v>0.1564027172393281</v>
       </c>
       <c r="C5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06211932841777404</v>
+        <v>-0.02891810854352785</v>
       </c>
       <c r="E5" t="n">
-        <v>0.03588715904829145</v>
+        <v>-0.04395571755856006</v>
       </c>
       <c r="F5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.03253706678746773</v>
+        <v>-0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J5" t="n">
         <v>-0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.09443164909676101</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0277479231747013</v>
+        <v>-0.01664328767877125</v>
       </c>
       <c r="N5" t="n">
-        <v>0.005786294716716199</v>
+        <v>-0.07617916574702041</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -2759,61 +2759,61 @@
         <v>-0</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.01904753960205491</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.0229241764692308</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.007124656919282556</v>
+        <v>-0.01091239376204601</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.02842025536768936</v>
+        <v>0.01038140927191501</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.01976616063381887</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0</v>
+        <v>0.0603745988479308</v>
       </c>
       <c r="AD5" t="n">
         <v>-0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.001646296728186662</v>
+        <v>0.0159020081734799</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.0349236606079784</v>
+        <v>0.05997871446106244</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.02534121406040188</v>
+        <v>0</v>
       </c>
       <c r="AJ5" t="n">
         <v>-0</v>
@@ -2822,25 +2822,25 @@
         <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>-0</v>
+        <v>0.007822512825865074</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.04259749465002279</v>
+        <v>-0.05618511938560545</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.06370543248649795</v>
+        <v>-0.09618447003049881</v>
       </c>
       <c r="AP5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ5" t="n">
         <v>-0</v>
       </c>
       <c r="AR5" t="n">
-        <v>-0.01765184213592883</v>
+        <v>0</v>
       </c>
       <c r="AS5" t="n">
         <v>0</v>
@@ -2849,16 +2849,16 @@
         <v>-0</v>
       </c>
       <c r="AU5" t="n">
-        <v>-0</v>
+        <v>0.322400134801906</v>
       </c>
       <c r="AV5" t="n">
         <v>-0</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.09046778606133406</v>
+        <v>0.02656766293906415</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.08336946135420518</v>
+        <v>0.1057064648507352</v>
       </c>
       <c r="AY5" t="n">
         <v>-0</v>
@@ -2867,25 +2867,25 @@
         <v>-0</v>
       </c>
       <c r="BA5" t="n">
-        <v>-0.1054729389392121</v>
+        <v>-0</v>
       </c>
       <c r="BB5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD5" t="n">
-        <v>0</v>
+        <v>-0.01579148428392624</v>
       </c>
       <c r="BE5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.002435558516469671</v>
+        <v>-0.05855237017317617</v>
       </c>
       <c r="BG5" t="n">
-        <v>-0.02350713213696108</v>
+        <v>-0.08703192545830385</v>
       </c>
       <c r="BH5" t="n">
         <v>0</v>
@@ -2894,106 +2894,106 @@
         <v>-0</v>
       </c>
       <c r="BJ5" t="n">
-        <v>-0.02781457074013408</v>
+        <v>0</v>
       </c>
       <c r="BK5" t="n">
         <v>0</v>
       </c>
       <c r="BL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM5" t="n">
-        <v>0</v>
+        <v>0.1314020119580843</v>
       </c>
       <c r="BN5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.0174301625169775</v>
+        <v>0.05207982845928911</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.008123254207345731</v>
+        <v>0.1804792756881191</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR5" t="n">
         <v>-0</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.07050904185471986</v>
+        <v>-0</v>
       </c>
       <c r="BT5" t="n">
         <v>-0</v>
       </c>
       <c r="BU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV5" t="n">
-        <v>0</v>
+        <v>0.2169878019812399</v>
       </c>
       <c r="BW5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.1179840136256134</v>
+        <v>0.001982124070230911</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.0237097140788687</v>
+        <v>0.009279625253152993</v>
       </c>
       <c r="BZ5" t="n">
         <v>-0</v>
       </c>
       <c r="CA5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB5" t="n">
-        <v>-0.09108760252225741</v>
+        <v>-0</v>
       </c>
       <c r="CC5" t="n">
         <v>0</v>
       </c>
       <c r="CD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE5" t="n">
-        <v>-0</v>
+        <v>-0.06653073678330225</v>
       </c>
       <c r="CF5" t="n">
         <v>0</v>
       </c>
       <c r="CG5" t="n">
-        <v>-0.05448392879026424</v>
+        <v>0.01750629229039489</v>
       </c>
       <c r="CH5" t="n">
-        <v>-0.003543608986828988</v>
+        <v>0.008538558438727259</v>
       </c>
       <c r="CI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.03900148864770316</v>
+        <v>-0</v>
       </c>
       <c r="CL5" t="n">
         <v>-0</v>
       </c>
       <c r="CM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN5" t="n">
-        <v>-0</v>
+        <v>-0.01640307587762197</v>
       </c>
       <c r="CO5" t="n">
         <v>0</v>
       </c>
       <c r="CP5" t="n">
-        <v>-0.04269617089954636</v>
+        <v>-0.01813242171190923</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.05091511666862552</v>
+        <v>-0.05595419941434735</v>
       </c>
       <c r="CR5" t="n">
         <v>0</v>
@@ -3002,79 +3002,79 @@
         <v>0</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.01362380682284415</v>
+        <v>-0</v>
       </c>
       <c r="CU5" t="n">
         <v>0</v>
       </c>
       <c r="CV5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW5" t="n">
-        <v>0</v>
+        <v>-0.04291622223219629</v>
       </c>
       <c r="CX5" t="n">
         <v>-0</v>
       </c>
       <c r="CY5" t="n">
-        <v>-0.04298768214558241</v>
+        <v>0.02736475206348669</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.01238685746183816</v>
+        <v>0.0257148550636149</v>
       </c>
       <c r="DA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.02231639580733999</v>
+        <v>0</v>
       </c>
       <c r="DD5" t="n">
         <v>0</v>
       </c>
       <c r="DE5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF5" t="n">
-        <v>0</v>
+        <v>-0.002272569820687361</v>
       </c>
       <c r="DG5" t="n">
         <v>0</v>
       </c>
       <c r="DH5" t="n">
-        <v>-0.002577828025826953</v>
+        <v>0.02404457385877212</v>
       </c>
       <c r="DI5" t="n">
-        <v>-0.01823445295559632</v>
+        <v>-0.05492666681262005</v>
       </c>
       <c r="DJ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL5" t="n">
-        <v>-0.008830969456722827</v>
+        <v>-0</v>
       </c>
       <c r="DM5" t="n">
         <v>0</v>
       </c>
       <c r="DN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO5" t="n">
-        <v>0</v>
+        <v>-0.08450838710759365</v>
       </c>
       <c r="DP5" t="n">
         <v>0</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.01246811475162457</v>
+        <v>0.004926987592867482</v>
       </c>
       <c r="DR5" t="n">
-        <v>-0.02501001538552049</v>
+        <v>-0.004185843531745718</v>
       </c>
       <c r="DS5" t="n">
         <v>0</v>
@@ -3083,34 +3083,34 @@
         <v>0</v>
       </c>
       <c r="DU5" t="n">
-        <v>0.006948915271497031</v>
+        <v>-0</v>
       </c>
       <c r="DV5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX5" t="n">
-        <v>-0</v>
+        <v>-0.0003919478747872636</v>
       </c>
       <c r="DY5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.01669560353472172</v>
+        <v>-0.04117579536394302</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.003587035835881974</v>
+        <v>-0.03723351265940349</v>
       </c>
       <c r="EB5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.05263960181515718</v>
+        <v>-0</v>
       </c>
       <c r="EE5" t="n">
         <v>-0</v>
@@ -3119,25 +3119,25 @@
         <v>0</v>
       </c>
       <c r="EG5" t="n">
-        <v>-0</v>
+        <v>-0.0485806366544613</v>
       </c>
       <c r="EH5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI5" t="n">
-        <v>-0.05016446628884525</v>
+        <v>0.01435837850429657</v>
       </c>
       <c r="EJ5" t="n">
-        <v>-0.06725701894435684</v>
+        <v>0.08745810976826489</v>
       </c>
       <c r="EK5" t="n">
         <v>0</v>
       </c>
       <c r="EL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.0578709365556523</v>
+        <v>-0</v>
       </c>
       <c r="EN5" t="n">
         <v>-0</v>
@@ -3146,25 +3146,25 @@
         <v>0</v>
       </c>
       <c r="EP5" t="n">
-        <v>0</v>
+        <v>-0.05143942412615329</v>
       </c>
       <c r="EQ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER5" t="n">
-        <v>-0.04391700439865834</v>
+        <v>0.03025412705260489</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.03559353571125424</v>
+        <v>0.009639112050198146</v>
       </c>
       <c r="ET5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV5" t="n">
-        <v>-0.05353389195721853</v>
+        <v>0</v>
       </c>
       <c r="EW5" t="n">
         <v>-0</v>
@@ -3173,25 +3173,25 @@
         <v>0</v>
       </c>
       <c r="EY5" t="n">
-        <v>-0</v>
+        <v>-0.0433450458767879</v>
       </c>
       <c r="EZ5" t="n">
         <v>0</v>
       </c>
       <c r="FA5" t="n">
-        <v>-0.03462787226835011</v>
+        <v>0.03121425773496929</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.002464185846932314</v>
+        <v>0.03329513894139961</v>
       </c>
       <c r="FC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE5" t="n">
-        <v>0.03937425233182133</v>
+        <v>-0</v>
       </c>
       <c r="FF5" t="n">
         <v>-0</v>
@@ -3200,16 +3200,16 @@
         <v>0</v>
       </c>
       <c r="FH5" t="n">
-        <v>-0</v>
+        <v>0.05401271203444592</v>
       </c>
       <c r="FI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ5" t="n">
-        <v>-0.04724016369028234</v>
+        <v>-0.06811831900144651</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.05537534008754794</v>
+        <v>-0.01300937069821159</v>
       </c>
       <c r="FL5" t="n">
         <v>-0</v>
@@ -3218,168 +3218,168 @@
         <v>0</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.01071030605444751</v>
+        <v>0</v>
       </c>
       <c r="FO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP5" t="n">
         <v>0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0</v>
+        <v>-0.08011846156680852</v>
       </c>
       <c r="FR5" t="n">
         <v>0</v>
       </c>
       <c r="FS5" t="n">
-        <v>0.007276797056370313</v>
+        <v>0.008377038738784027</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.04295521309027601</v>
+        <v>0.03082879734139503</v>
       </c>
       <c r="FU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV5" t="n">
         <v>-0</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.05515336773607025</v>
+        <v>0</v>
       </c>
       <c r="FX5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY5" t="n">
         <v>-0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0</v>
+        <v>-0.02598358894243691</v>
       </c>
       <c r="GA5" t="n">
         <v>-0</v>
       </c>
       <c r="GB5" t="n">
-        <v>-0.0145291457687335</v>
+        <v>-0.003814796472217682</v>
       </c>
       <c r="GC5" t="n">
         <v>-0</v>
       </c>
       <c r="GD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE5" t="n">
         <v>-0</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.009013989685888563</v>
+        <v>0</v>
       </c>
       <c r="GG5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.008187577389387005</v>
+        <v>0.02203699579754653</v>
       </c>
       <c r="C6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07860520148467146</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01419816801285352</v>
+        <v>-0.007740480310706088</v>
       </c>
       <c r="F6" t="n">
-        <v>-0</v>
+        <v>-0.002180737468036783</v>
       </c>
       <c r="G6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.02619032065787312</v>
+        <v>0.0110376124337492</v>
       </c>
       <c r="L6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.05732550742375957</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.00503269717855007</v>
+        <v>-0.01474366659191357</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-0.01104363029817155</v>
       </c>
       <c r="P6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>-3.148314251893659e-12</v>
+        <v>-5.406574677762423e-05</v>
       </c>
       <c r="U6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.02691913098558665</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.03459062624522048</v>
+        <v>-0.001808979843718327</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>8.187934304431023e-12</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.02860282470157195</v>
+        <v>0.01754060513015957</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.06621557786025882</v>
+        <v>-0</v>
       </c>
       <c r="AF6" t="n">
-        <v>-0.04318002097111404</v>
+        <v>0.02340600525096773</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>0.004715308971651484</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
@@ -3391,46 +3391,46 @@
         <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>-0.03253741510681497</v>
+        <v>0.003817955687453985</v>
       </c>
       <c r="AM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN6" t="n">
-        <v>-0.008864224765016126</v>
+        <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>-0.002459571401165027</v>
+        <v>-0.01754160411839323</v>
       </c>
       <c r="AP6" t="n">
-        <v>-0</v>
+        <v>-0.008232216067228092</v>
       </c>
       <c r="AQ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU6" t="n">
-        <v>-0.1135142375856565</v>
+        <v>0.047958667207912</v>
       </c>
       <c r="AV6" t="n">
         <v>0</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.01343581543007908</v>
+        <v>0</v>
       </c>
       <c r="AX6" t="n">
-        <v>-0.02585291127021959</v>
+        <v>-0.001638521595537643</v>
       </c>
       <c r="AY6" t="n">
-        <v>0</v>
+        <v>-0.009488508429564399</v>
       </c>
       <c r="AZ6" t="n">
         <v>0</v>
@@ -3439,25 +3439,25 @@
         <v>0</v>
       </c>
       <c r="BB6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC6" t="n">
         <v>-0</v>
       </c>
       <c r="BD6" t="n">
-        <v>-0.007290713748492366</v>
+        <v>0.00272304329542059</v>
       </c>
       <c r="BE6" t="n">
         <v>0</v>
       </c>
       <c r="BF6" t="n">
-        <v>0.06564548366734084</v>
+        <v>0</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.01163817728927838</v>
+        <v>-0.02127749879792575</v>
       </c>
       <c r="BH6" t="n">
-        <v>-0</v>
+        <v>-0.003156099246093989</v>
       </c>
       <c r="BI6" t="n">
         <v>-0</v>
@@ -3466,28 +3466,28 @@
         <v>0</v>
       </c>
       <c r="BK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.0436392826411016</v>
+        <v>0.03070151231558392</v>
       </c>
       <c r="BN6" t="n">
         <v>-0</v>
       </c>
       <c r="BO6" t="n">
-        <v>0.04029631613982343</v>
+        <v>-0</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.03493247522239078</v>
+        <v>0.01668743870468487</v>
       </c>
       <c r="BQ6" t="n">
-        <v>0</v>
+        <v>0.009385761317321925</v>
       </c>
       <c r="BR6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS6" t="n">
         <v>0</v>
@@ -3496,49 +3496,49 @@
         <v>0</v>
       </c>
       <c r="BU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV6" t="n">
-        <v>-0.007252017528035876</v>
+        <v>0.01634200934975802</v>
       </c>
       <c r="BW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX6" t="n">
-        <v>0.04484555413459309</v>
+        <v>0</v>
       </c>
       <c r="BY6" t="n">
-        <v>-0.007296860959473931</v>
+        <v>-0.01502080465482846</v>
       </c>
       <c r="BZ6" t="n">
-        <v>-0</v>
+        <v>0.01886919451460421</v>
       </c>
       <c r="CA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE6" t="n">
-        <v>0.0355076452197495</v>
+        <v>-0.003372369068646319</v>
       </c>
       <c r="CF6" t="n">
         <v>-0</v>
       </c>
       <c r="CG6" t="n">
-        <v>-0.03479720511726848</v>
+        <v>-0</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.01877910460332915</v>
+        <v>-0.00191791348596938</v>
       </c>
       <c r="CI6" t="n">
-        <v>0</v>
+        <v>0.006707568031340302</v>
       </c>
       <c r="CJ6" t="n">
         <v>0</v>
@@ -3547,136 +3547,136 @@
         <v>0</v>
       </c>
       <c r="CL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM6" t="n">
         <v>0</v>
       </c>
       <c r="CN6" t="n">
-        <v>0.02191202367052025</v>
+        <v>0.001584281138956051</v>
       </c>
       <c r="CO6" t="n">
         <v>-0</v>
       </c>
       <c r="CP6" t="n">
-        <v>-0.01855759102198589</v>
+        <v>-0</v>
       </c>
       <c r="CQ6" t="n">
-        <v>0.04957905180639455</v>
+        <v>0.004963156295146576</v>
       </c>
       <c r="CR6" t="n">
-        <v>0</v>
+        <v>-0.01076131083411386</v>
       </c>
       <c r="CS6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT6" t="n">
         <v>-0</v>
       </c>
       <c r="CU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW6" t="n">
-        <v>0.03907195103887508</v>
+        <v>0.001347343237803925</v>
       </c>
       <c r="CX6" t="n">
         <v>0</v>
       </c>
       <c r="CY6" t="n">
-        <v>-0.02956572746077075</v>
+        <v>0</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0.007721590280090391</v>
+        <v>-7.070677795067652e-05</v>
       </c>
       <c r="DA6" t="n">
-        <v>-0</v>
+        <v>0.009066767743338254</v>
       </c>
       <c r="DB6" t="n">
         <v>-0</v>
       </c>
       <c r="DC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF6" t="n">
-        <v>0.1031463046490192</v>
+        <v>-0.008095523122712152</v>
       </c>
       <c r="DG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH6" t="n">
-        <v>-0.01660960367265083</v>
+        <v>-0</v>
       </c>
       <c r="DI6" t="n">
-        <v>-0.0001393479702930092</v>
+        <v>0.0002717469194852843</v>
       </c>
       <c r="DJ6" t="n">
-        <v>0</v>
+        <v>0.008653255255182639</v>
       </c>
       <c r="DK6" t="n">
         <v>0</v>
       </c>
       <c r="DL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM6" t="n">
         <v>0</v>
       </c>
       <c r="DN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO6" t="n">
-        <v>-0.01039706745893207</v>
+        <v>0.004643048325089712</v>
       </c>
       <c r="DP6" t="n">
         <v>0</v>
       </c>
       <c r="DQ6" t="n">
-        <v>0.003048089718964705</v>
+        <v>-0</v>
       </c>
       <c r="DR6" t="n">
-        <v>0.08007178323922738</v>
+        <v>0.01611190074836967</v>
       </c>
       <c r="DS6" t="n">
-        <v>0</v>
+        <v>-0.001014505929216765</v>
       </c>
       <c r="DT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW6" t="n">
         <v>-0</v>
       </c>
       <c r="DX6" t="n">
-        <v>0.01784012131662246</v>
+        <v>-0.007704291731332574</v>
       </c>
       <c r="DY6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ6" t="n">
-        <v>0.04047347013905575</v>
+        <v>-0</v>
       </c>
       <c r="EA6" t="n">
-        <v>0.004453484677248439</v>
+        <v>-0.007215414713973275</v>
       </c>
       <c r="EB6" t="n">
-        <v>-0</v>
+        <v>-0.005439830514608927</v>
       </c>
       <c r="EC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED6" t="n">
         <v>-0</v>
@@ -3685,52 +3685,52 @@
         <v>-0</v>
       </c>
       <c r="EF6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG6" t="n">
-        <v>0.0319466667897076</v>
+        <v>0.002413293050505201</v>
       </c>
       <c r="EH6" t="n">
         <v>-0</v>
       </c>
       <c r="EI6" t="n">
-        <v>-0.04502899397424804</v>
+        <v>0</v>
       </c>
       <c r="EJ6" t="n">
-        <v>-0.04830262965508345</v>
+        <v>-0.001542894305188213</v>
       </c>
       <c r="EK6" t="n">
-        <v>0</v>
+        <v>0.008478916975591309</v>
       </c>
       <c r="EL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM6" t="n">
         <v>0</v>
       </c>
       <c r="EN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO6" t="n">
         <v>0</v>
       </c>
       <c r="EP6" t="n">
-        <v>0.01911497245486678</v>
+        <v>-0.002294994370496084</v>
       </c>
       <c r="EQ6" t="n">
         <v>0</v>
       </c>
       <c r="ER6" t="n">
-        <v>0.0009442305697685</v>
+        <v>-0</v>
       </c>
       <c r="ES6" t="n">
-        <v>0.03263521363283374</v>
+        <v>-0.01190800602009629</v>
       </c>
       <c r="ET6" t="n">
-        <v>0</v>
+        <v>0.03541540140571448</v>
       </c>
       <c r="EU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV6" t="n">
         <v>0</v>
@@ -3739,52 +3739,52 @@
         <v>-0</v>
       </c>
       <c r="EX6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY6" t="n">
-        <v>0.02748513821199191</v>
+        <v>0.00366400056016496</v>
       </c>
       <c r="EZ6" t="n">
         <v>-0</v>
       </c>
       <c r="FA6" t="n">
-        <v>-0.02383223827249663</v>
+        <v>-0</v>
       </c>
       <c r="FB6" t="n">
-        <v>0.02108186899213796</v>
+        <v>-0.002399040335755978</v>
       </c>
       <c r="FC6" t="n">
-        <v>0</v>
+        <v>0.0107308776449688</v>
       </c>
       <c r="FD6" t="n">
         <v>0</v>
       </c>
       <c r="FE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF6" t="n">
         <v>-0</v>
       </c>
       <c r="FG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH6" t="n">
-        <v>-0.03278454593754265</v>
+        <v>-0.006525487073643154</v>
       </c>
       <c r="FI6" t="n">
         <v>0</v>
       </c>
       <c r="FJ6" t="n">
-        <v>-0.02155782485012717</v>
+        <v>-0</v>
       </c>
       <c r="FK6" t="n">
-        <v>0.007202224696504176</v>
+        <v>-0.01656149408850831</v>
       </c>
       <c r="FL6" t="n">
-        <v>0</v>
+        <v>0.01926377877661225</v>
       </c>
       <c r="FM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN6" t="n">
         <v>0</v>
@@ -3793,28 +3793,28 @@
         <v>0</v>
       </c>
       <c r="FP6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ6" t="n">
-        <v>0.01037970468752</v>
+        <v>-0.003285774797124471</v>
       </c>
       <c r="FR6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS6" t="n">
-        <v>0.06087312182603421</v>
+        <v>-0</v>
       </c>
       <c r="FT6" t="n">
-        <v>-0.002093713933863229</v>
+        <v>-0.002158901712802789</v>
       </c>
       <c r="FU6" t="n">
-        <v>0</v>
+        <v>0.003412779985610374</v>
       </c>
       <c r="FV6" t="n">
         <v>-0</v>
       </c>
       <c r="FW6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX6" t="n">
         <v>0</v>
@@ -3823,25 +3823,25 @@
         <v>-0</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0.02584101348765209</v>
+        <v>-0.02342710951493609</v>
       </c>
       <c r="GA6" t="n">
         <v>0</v>
       </c>
       <c r="GB6" t="n">
-        <v>0.03972273295281489</v>
+        <v>-0</v>
       </c>
       <c r="GC6" t="n">
         <v>-0</v>
       </c>
       <c r="GD6" t="n">
-        <v>-0</v>
+        <v>0.0008644342568427885</v>
       </c>
       <c r="GE6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG6" t="n">
         <v>0</v>
@@ -3852,19 +3852,19 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.1245170586821282</v>
       </c>
       <c r="C7" t="n">
-        <v>-2.407147835013207e-11</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.07172073078374751</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01817323835011175</v>
+        <v>-0.01727062703946451</v>
       </c>
       <c r="F7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -3873,22 +3873,22 @@
         <v>-0</v>
       </c>
       <c r="I7" t="n">
-        <v>-0</v>
+        <v>-3.410615090424475e-11</v>
       </c>
       <c r="J7" t="n">
         <v>-0</v>
       </c>
       <c r="K7" t="n">
-        <v>-0</v>
+        <v>0.07041758536805662</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.01996339669082169</v>
+        <v>-0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.05028767884111007</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.03315472619599032</v>
+        <v>-0.07878680048788192</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -3900,25 +3900,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>-0</v>
+        <v>-0.0256039941057025</v>
       </c>
       <c r="S7" t="n">
         <v>-0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.01345014692042715</v>
       </c>
       <c r="U7" t="n">
-        <v>-1.989504750991232e-11</v>
+        <v>-0</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.03348443728178389</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.05972563111022944</v>
+        <v>-0.01199748571849331</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -3927,22 +3927,22 @@
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>-3.286156406066523e-12</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>0.05252679087646914</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.00523062804326568</v>
+        <v>-0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.02157748255717664</v>
+        <v>-0</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.008377517470222353</v>
+        <v>0.03927114641936681</v>
       </c>
       <c r="AG7" t="n">
         <v>0</v>
@@ -3954,79 +3954,79 @@
         <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>0.01744415924002832</v>
       </c>
       <c r="AK7" t="n">
         <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>0.03902660757593394</v>
       </c>
       <c r="AM7" t="n">
-        <v>-0.02120597126521662</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.05094568640965421</v>
+        <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.0053572897105515</v>
+        <v>-0.03280458829489486</v>
       </c>
       <c r="AP7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0</v>
+        <v>-0.02378383903235459</v>
       </c>
       <c r="AT7" t="n">
         <v>-0</v>
       </c>
       <c r="AU7" t="n">
-        <v>0</v>
+        <v>0.1905849210809099</v>
       </c>
       <c r="AV7" t="n">
-        <v>-0.0449276679849631</v>
+        <v>-0</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.06426411788257326</v>
+        <v>-0</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.04027725491101224</v>
+        <v>0.08606747467014614</v>
       </c>
       <c r="AY7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ7" t="n">
         <v>0</v>
       </c>
       <c r="BA7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB7" t="n">
-        <v>-0</v>
+        <v>0.006354336289067467</v>
       </c>
       <c r="BC7" t="n">
         <v>0</v>
       </c>
       <c r="BD7" t="n">
-        <v>0</v>
+        <v>-0.009215507838232221</v>
       </c>
       <c r="BE7" t="n">
-        <v>-0.003364903645357973</v>
+        <v>-0</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.06613980035203704</v>
+        <v>0</v>
       </c>
       <c r="BG7" t="n">
-        <v>-0.01358632518352999</v>
+        <v>-0.07981757866051244</v>
       </c>
       <c r="BH7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI7" t="n">
         <v>-0</v>
@@ -4035,22 +4035,22 @@
         <v>0</v>
       </c>
       <c r="BK7" t="n">
-        <v>-0</v>
+        <v>-0.006496526001873809</v>
       </c>
       <c r="BL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM7" t="n">
-        <v>-0</v>
+        <v>0.02391548789790811</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.07059071940345002</v>
+        <v>-0</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.03239254982040844</v>
+        <v>0</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.07046151034030379</v>
+        <v>0.1167342020435507</v>
       </c>
       <c r="BQ7" t="n">
         <v>-0</v>
@@ -4062,22 +4062,22 @@
         <v>-0</v>
       </c>
       <c r="BT7" t="n">
-        <v>-0</v>
+        <v>0.04186735348492758</v>
       </c>
       <c r="BU7" t="n">
         <v>-0</v>
       </c>
       <c r="BV7" t="n">
-        <v>0</v>
+        <v>0.1293541678976725</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.004198355477050178</v>
+        <v>0</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.06950642577438346</v>
+        <v>-0</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.07734217861260392</v>
+        <v>0.01176170911050859</v>
       </c>
       <c r="BZ7" t="n">
         <v>-0</v>
@@ -4086,25 +4086,25 @@
         <v>0</v>
       </c>
       <c r="CB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC7" t="n">
-        <v>-0</v>
+        <v>0.008628466612801509</v>
       </c>
       <c r="CD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE7" t="n">
-        <v>0</v>
+        <v>-0.03546687815670187</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.01758474331798164</v>
+        <v>-0</v>
       </c>
       <c r="CG7" t="n">
-        <v>-0.03951961838617571</v>
+        <v>-0</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.01122781136859505</v>
+        <v>0.0009509887705276528</v>
       </c>
       <c r="CI7" t="n">
         <v>0</v>
@@ -4113,25 +4113,25 @@
         <v>-0</v>
       </c>
       <c r="CK7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL7" t="n">
-        <v>0</v>
+        <v>0.0380250913166352</v>
       </c>
       <c r="CM7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>0</v>
+        <v>-0.01659763217467215</v>
       </c>
       <c r="CO7" t="n">
-        <v>0.006365618135657596</v>
+        <v>-0</v>
       </c>
       <c r="CP7" t="n">
-        <v>-0.0521523115607111</v>
+        <v>-0</v>
       </c>
       <c r="CQ7" t="n">
-        <v>-0.01248693736886623</v>
+        <v>-0.02549011768845449</v>
       </c>
       <c r="CR7" t="n">
         <v>0</v>
@@ -4143,25 +4143,25 @@
         <v>-0</v>
       </c>
       <c r="CU7" t="n">
-        <v>0</v>
+        <v>-0.000930190420562084</v>
       </c>
       <c r="CV7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW7" t="n">
-        <v>-0</v>
+        <v>-0.03280479973452971</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.01868139542349704</v>
+        <v>0</v>
       </c>
       <c r="CY7" t="n">
-        <v>-0.03072477429186374</v>
+        <v>0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.007011719260784009</v>
+        <v>0.005997996364432333</v>
       </c>
       <c r="DA7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DB7" t="n">
         <v>0</v>
@@ -4170,22 +4170,22 @@
         <v>0</v>
       </c>
       <c r="DD7" t="n">
-        <v>-0</v>
+        <v>0.03838702393791223</v>
       </c>
       <c r="DE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF7" t="n">
-        <v>0</v>
+        <v>-0.1249591797811167</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.03852464503252773</v>
+        <v>-0</v>
       </c>
       <c r="DH7" t="n">
-        <v>-0.03620310837706654</v>
+        <v>-0</v>
       </c>
       <c r="DI7" t="n">
-        <v>-0.003803874778377497</v>
+        <v>0.03546545665076578</v>
       </c>
       <c r="DJ7" t="n">
         <v>-0</v>
@@ -4197,22 +4197,22 @@
         <v>0</v>
       </c>
       <c r="DM7" t="n">
-        <v>-0</v>
+        <v>-0.02299922481168991</v>
       </c>
       <c r="DN7" t="n">
         <v>-0</v>
       </c>
       <c r="DO7" t="n">
-        <v>0</v>
+        <v>-0.004233011607000322</v>
       </c>
       <c r="DP7" t="n">
-        <v>-0.01440135324970629</v>
+        <v>-0</v>
       </c>
       <c r="DQ7" t="n">
-        <v>-0.008229293418371766</v>
+        <v>-0</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.02614932685734346</v>
+        <v>-0.009211699487474355</v>
       </c>
       <c r="DS7" t="n">
         <v>-0</v>
@@ -4221,25 +4221,25 @@
         <v>0</v>
       </c>
       <c r="DU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV7" t="n">
-        <v>0</v>
+        <v>0.00992348571587787</v>
       </c>
       <c r="DW7" t="n">
         <v>0</v>
       </c>
       <c r="DX7" t="n">
-        <v>-0</v>
+        <v>-0.006025811196645231</v>
       </c>
       <c r="DY7" t="n">
-        <v>-0.03057729393248184</v>
+        <v>0</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0.03979827636264963</v>
+        <v>0</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.01016474691676118</v>
+        <v>-0.02335243297789449</v>
       </c>
       <c r="EB7" t="n">
         <v>0</v>
@@ -4251,52 +4251,52 @@
         <v>-0</v>
       </c>
       <c r="EE7" t="n">
-        <v>0</v>
+        <v>-0.005629044866320155</v>
       </c>
       <c r="EF7" t="n">
         <v>0</v>
       </c>
       <c r="EG7" t="n">
-        <v>0</v>
+        <v>-0.002614448165116416</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.01185196376572904</v>
+        <v>0</v>
       </c>
       <c r="EI7" t="n">
-        <v>-0.02000152564220638</v>
+        <v>0</v>
       </c>
       <c r="EJ7" t="n">
-        <v>-0.0110548192673008</v>
+        <v>0.02933836291557374</v>
       </c>
       <c r="EK7" t="n">
         <v>0</v>
       </c>
       <c r="EL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM7" t="n">
         <v>0</v>
       </c>
       <c r="EN7" t="n">
-        <v>0</v>
+        <v>0.03877296370443496</v>
       </c>
       <c r="EO7" t="n">
         <v>0</v>
       </c>
       <c r="EP7" t="n">
-        <v>0</v>
+        <v>-0.05436425553919905</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.006677872153611192</v>
+        <v>-0</v>
       </c>
       <c r="ER7" t="n">
-        <v>-0.011494312385996</v>
+        <v>-0</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.002171163373420532</v>
+        <v>-0.006765311659216708</v>
       </c>
       <c r="ET7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU7" t="n">
         <v>-0</v>
@@ -4305,22 +4305,22 @@
         <v>0</v>
       </c>
       <c r="EW7" t="n">
-        <v>-0</v>
+        <v>0.01274444701028924</v>
       </c>
       <c r="EX7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY7" t="n">
-        <v>0</v>
+        <v>-0.04381703005391028</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.01289052381979625</v>
+        <v>-0</v>
       </c>
       <c r="FA7" t="n">
-        <v>-0.02461007565831106</v>
+        <v>-0</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.01114329518492726</v>
+        <v>0.004579729314496992</v>
       </c>
       <c r="FC7" t="n">
         <v>-0</v>
@@ -4329,91 +4329,91 @@
         <v>-0</v>
       </c>
       <c r="FE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF7" t="n">
-        <v>0</v>
+        <v>0.02378788003243101</v>
       </c>
       <c r="FG7" t="n">
         <v>-0</v>
       </c>
       <c r="FH7" t="n">
-        <v>0</v>
+        <v>-0.05567570707103647</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.009622680397781185</v>
+        <v>0</v>
       </c>
       <c r="FJ7" t="n">
-        <v>-0.01093797113479456</v>
+        <v>0</v>
       </c>
       <c r="FK7" t="n">
-        <v>-0.003055131372936806</v>
+        <v>-0.02223183010824357</v>
       </c>
       <c r="FL7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM7" t="n">
         <v>-0</v>
       </c>
       <c r="FN7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO7" t="n">
-        <v>0</v>
+        <v>0.02079252262764474</v>
       </c>
       <c r="FP7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ7" t="n">
-        <v>-0</v>
+        <v>-0.07428236867469985</v>
       </c>
       <c r="FR7" t="n">
-        <v>-0.001576907010677828</v>
+        <v>-0</v>
       </c>
       <c r="FS7" t="n">
-        <v>0.02100235304201543</v>
+        <v>0</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.0173100651519794</v>
+        <v>0.01856989979269897</v>
       </c>
       <c r="FU7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV7" t="n">
         <v>-0</v>
       </c>
       <c r="FW7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX7" t="n">
-        <v>0</v>
+        <v>0.0001657178490216724</v>
       </c>
       <c r="FY7" t="n">
         <v>-0</v>
       </c>
       <c r="FZ7" t="n">
-        <v>-0</v>
+        <v>-0.05118978563357166</v>
       </c>
       <c r="GA7" t="n">
-        <v>-0.006370316343615541</v>
+        <v>0</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.0220218403260972</v>
+        <v>-0</v>
       </c>
       <c r="GC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF7" t="n">
         <v>0</v>
       </c>
       <c r="GG7" t="n">
-        <v>-0</v>
+        <v>0.04540791743623831</v>
       </c>
     </row>
     <row r="8">
@@ -4421,13 +4421,13 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>-0</v>
@@ -4448,13 +4448,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>-0</v>
@@ -4475,13 +4475,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>-0</v>
@@ -4502,13 +4502,13 @@
         <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
         <v>-0</v>
@@ -4529,13 +4529,13 @@
         <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM8" t="n">
         <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO8" t="n">
         <v>-0</v>
@@ -4556,13 +4556,13 @@
         <v>0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV8" t="n">
         <v>0</v>
       </c>
       <c r="AW8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX8" t="n">
         <v>-0</v>
@@ -4583,13 +4583,13 @@
         <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE8" t="n">
         <v>0</v>
       </c>
       <c r="BF8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG8" t="n">
         <v>-0</v>
@@ -4610,13 +4610,13 @@
         <v>0</v>
       </c>
       <c r="BM8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN8" t="n">
         <v>0</v>
       </c>
       <c r="BO8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BP8" t="n">
         <v>-0</v>
@@ -4637,13 +4637,13 @@
         <v>0</v>
       </c>
       <c r="BV8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW8" t="n">
         <v>0</v>
       </c>
       <c r="BX8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY8" t="n">
         <v>-0</v>
@@ -4664,13 +4664,13 @@
         <v>0</v>
       </c>
       <c r="CE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF8" t="n">
         <v>0</v>
       </c>
       <c r="CG8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH8" t="n">
         <v>-0</v>
@@ -4691,13 +4691,13 @@
         <v>0</v>
       </c>
       <c r="CN8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO8" t="n">
         <v>0</v>
       </c>
       <c r="CP8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ8" t="n">
         <v>-0</v>
@@ -4745,13 +4745,13 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG8" t="n">
         <v>0</v>
       </c>
       <c r="DH8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DI8" t="n">
         <v>-0</v>
@@ -4772,13 +4772,13 @@
         <v>0</v>
       </c>
       <c r="DO8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP8" t="n">
         <v>0</v>
       </c>
       <c r="DQ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR8" t="n">
         <v>-0</v>
@@ -4826,13 +4826,13 @@
         <v>0</v>
       </c>
       <c r="EG8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH8" t="n">
         <v>0</v>
       </c>
       <c r="EI8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ8" t="n">
         <v>-0</v>
@@ -4853,13 +4853,13 @@
         <v>0</v>
       </c>
       <c r="EP8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ8" t="n">
         <v>0</v>
       </c>
       <c r="ER8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES8" t="n">
         <v>-0</v>
@@ -4880,13 +4880,13 @@
         <v>0</v>
       </c>
       <c r="EY8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ8" t="n">
         <v>0</v>
       </c>
       <c r="FA8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB8" t="n">
         <v>-0</v>
@@ -4907,13 +4907,13 @@
         <v>0</v>
       </c>
       <c r="FH8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI8" t="n">
         <v>0</v>
       </c>
       <c r="FJ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FK8" t="n">
         <v>-0</v>
@@ -4987,46 +4987,46 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.6543182288984134</v>
       </c>
       <c r="C9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1034896423179869</v>
+        <v>-0.2454052613929606</v>
       </c>
       <c r="E9" t="n">
-        <v>0.05152961993739012</v>
+        <v>-0.07050846786244298</v>
       </c>
       <c r="F9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>-0</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.07612444649765195</v>
+        <v>-0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>0.4770367269722562</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0876500236514437</v>
+        <v>-0.2491339109266995</v>
       </c>
       <c r="N9" t="n">
-        <v>0.00951643132796615</v>
+        <v>-0.1452453081668913</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -5035,88 +5035,88 @@
         <v>-0</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.1027131551928271</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.09566595643398519</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>-0.008937990731931895</v>
+        <v>-0.07393490199511957</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.085665192743741</v>
+        <v>-0.08492032727707781</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0.01635679078413924</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
         <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0</v>
+        <v>0.207624884915939</v>
       </c>
       <c r="AD9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.0753037514982811</v>
+        <v>-0.05089021325272716</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.04184935409493493</v>
+        <v>-0.01632237761952453</v>
       </c>
       <c r="AG9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
         <v>-0</v>
       </c>
       <c r="AI9" t="n">
-        <v>-0.02587286162200809</v>
+        <v>-0</v>
       </c>
       <c r="AJ9" t="n">
         <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>-0</v>
+        <v>0.1242579949471883</v>
       </c>
       <c r="AM9" t="n">
         <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.07440818334881028</v>
+        <v>-0.1014526064781172</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.07428359343297583</v>
+        <v>-0.1669429434542812</v>
       </c>
       <c r="AP9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR9" t="n">
-        <v>-0.01504759739149128</v>
+        <v>-0</v>
       </c>
       <c r="AS9" t="n">
         <v>0</v>
@@ -5125,25 +5125,25 @@
         <v>-0</v>
       </c>
       <c r="AU9" t="n">
-        <v>-0</v>
+        <v>0.715078753976356</v>
       </c>
       <c r="AV9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.02645757685907652</v>
+        <v>-0.05233798494163107</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.05350494220624346</v>
+        <v>0.1599099635676433</v>
       </c>
       <c r="AY9" t="n">
         <v>-0</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA9" t="n">
-        <v>-0.1358752215873977</v>
+        <v>-0</v>
       </c>
       <c r="BB9" t="n">
         <v>0</v>
@@ -5152,178 +5152,178 @@
         <v>0</v>
       </c>
       <c r="BD9" t="n">
-        <v>0</v>
+        <v>0.0531365681812152</v>
       </c>
       <c r="BE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF9" t="n">
-        <v>0.1111562638474677</v>
+        <v>-0.08745235867733951</v>
       </c>
       <c r="BG9" t="n">
-        <v>-0.005591243659298081</v>
+        <v>-0.284665504177408</v>
       </c>
       <c r="BH9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI9" t="n">
         <v>-0</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.01451102589187562</v>
+        <v>0</v>
       </c>
       <c r="BK9" t="n">
         <v>0</v>
       </c>
       <c r="BL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM9" t="n">
-        <v>-0</v>
+        <v>0.209260907843521</v>
       </c>
       <c r="BN9" t="n">
         <v>-0</v>
       </c>
       <c r="BO9" t="n">
-        <v>0.01591542480080978</v>
+        <v>0.08366408636441444</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.01148857875663287</v>
+        <v>0.1630737788883857</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS9" t="n">
-        <v>0.04226355931246483</v>
+        <v>-0</v>
       </c>
       <c r="BT9" t="n">
         <v>-0</v>
       </c>
       <c r="BU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV9" t="n">
-        <v>-0</v>
+        <v>0.5057143204733496</v>
       </c>
       <c r="BW9" t="n">
         <v>0</v>
       </c>
       <c r="BX9" t="n">
-        <v>0.07897206232916838</v>
+        <v>-0.1165374453956266</v>
       </c>
       <c r="BY9" t="n">
-        <v>-0.02500836108808676</v>
+        <v>-0.0004625942301554815</v>
       </c>
       <c r="BZ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB9" t="n">
-        <v>-0.1594150331678371</v>
+        <v>0</v>
       </c>
       <c r="CC9" t="n">
         <v>0</v>
       </c>
       <c r="CD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE9" t="n">
-        <v>-0</v>
+        <v>-0.1923923997673583</v>
       </c>
       <c r="CF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG9" t="n">
-        <v>-0.03035478612508915</v>
+        <v>0.04409052946038188</v>
       </c>
       <c r="CH9" t="n">
-        <v>0.02249485942137788</v>
+        <v>-0.05068964188686354</v>
       </c>
       <c r="CI9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK9" t="n">
-        <v>0.0315304993979291</v>
+        <v>0</v>
       </c>
       <c r="CL9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN9" t="n">
-        <v>0</v>
+        <v>-0.02373354515003009</v>
       </c>
       <c r="CO9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP9" t="n">
-        <v>-0.04791708535587441</v>
+        <v>-0.1574384384121277</v>
       </c>
       <c r="CQ9" t="n">
-        <v>0.1057751852199493</v>
+        <v>-0.1128264631353264</v>
       </c>
       <c r="CR9" t="n">
         <v>0</v>
       </c>
       <c r="CS9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT9" t="n">
-        <v>0.0134212961030393</v>
+        <v>-0</v>
       </c>
       <c r="CU9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW9" t="n">
-        <v>0</v>
+        <v>-0.1548701146981225</v>
       </c>
       <c r="CX9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY9" t="n">
-        <v>-0.02962199311843865</v>
+        <v>0.1013613079780224</v>
       </c>
       <c r="CZ9" t="n">
-        <v>0.02035709120454273</v>
+        <v>-0.02193855104829247</v>
       </c>
       <c r="DA9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC9" t="n">
-        <v>0.03186283225633133</v>
+        <v>-0</v>
       </c>
       <c r="DD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE9" t="n">
         <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>0</v>
+        <v>-0.02281959107999462</v>
       </c>
       <c r="DG9" t="n">
         <v>0</v>
       </c>
       <c r="DH9" t="n">
-        <v>-0.01036557371226376</v>
+        <v>0.1354955765898423</v>
       </c>
       <c r="DI9" t="n">
-        <v>-0.07426244798919424</v>
+        <v>0.09352830715113057</v>
       </c>
       <c r="DJ9" t="n">
         <v>0</v>
@@ -5332,25 +5332,25 @@
         <v>0</v>
       </c>
       <c r="DL9" t="n">
-        <v>-0.05813786994789522</v>
+        <v>0</v>
       </c>
       <c r="DM9" t="n">
         <v>0</v>
       </c>
       <c r="DN9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO9" t="n">
-        <v>0</v>
+        <v>-0.1124793352303008</v>
       </c>
       <c r="DP9" t="n">
         <v>0</v>
       </c>
       <c r="DQ9" t="n">
-        <v>0.01787059575787851</v>
+        <v>0.02418091696712872</v>
       </c>
       <c r="DR9" t="n">
-        <v>0.033764512960773</v>
+        <v>-0.0917672507813692</v>
       </c>
       <c r="DS9" t="n">
         <v>0</v>
@@ -5359,252 +5359,252 @@
         <v>0</v>
       </c>
       <c r="DU9" t="n">
-        <v>0.03317291067226001</v>
+        <v>-0</v>
       </c>
       <c r="DV9" t="n">
         <v>0</v>
       </c>
       <c r="DW9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX9" t="n">
-        <v>-0</v>
+        <v>-0.03416704574363146</v>
       </c>
       <c r="DY9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ9" t="n">
-        <v>-0.01085432052448368</v>
+        <v>-0.03066875350357114</v>
       </c>
       <c r="EA9" t="n">
-        <v>-0.02638309283301314</v>
+        <v>-0.02469942060875089</v>
       </c>
       <c r="EB9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED9" t="n">
-        <v>0.01770151899383745</v>
+        <v>-0</v>
       </c>
       <c r="EE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG9" t="n">
-        <v>-0</v>
+        <v>-0.07252052613720039</v>
       </c>
       <c r="EH9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI9" t="n">
-        <v>-0.1098527559598784</v>
+        <v>0.04976611168744887</v>
       </c>
       <c r="EJ9" t="n">
-        <v>-0.02332270746762077</v>
+        <v>0.06137540882260559</v>
       </c>
       <c r="EK9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM9" t="n">
-        <v>0.05985010055707147</v>
+        <v>-0</v>
       </c>
       <c r="EN9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO9" t="n">
         <v>0</v>
       </c>
       <c r="EP9" t="n">
-        <v>-0</v>
+        <v>-0.1744042689161833</v>
       </c>
       <c r="EQ9" t="n">
         <v>-0</v>
       </c>
       <c r="ER9" t="n">
-        <v>-0.0513477479261277</v>
+        <v>-0.1082888934296245</v>
       </c>
       <c r="ES9" t="n">
-        <v>0.04301191992233021</v>
+        <v>-0.07007926512395128</v>
       </c>
       <c r="ET9" t="n">
         <v>-0</v>
       </c>
       <c r="EU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV9" t="n">
-        <v>0.05687332558106257</v>
+        <v>0</v>
       </c>
       <c r="EW9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY9" t="n">
-        <v>-0</v>
+        <v>-0.1592933864248273</v>
       </c>
       <c r="EZ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA9" t="n">
-        <v>-0.0348258804843475</v>
+        <v>0.08306958197710543</v>
       </c>
       <c r="FB9" t="n">
-        <v>0.02625158392526732</v>
+        <v>-0.02804636499683423</v>
       </c>
       <c r="FC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE9" t="n">
-        <v>0.04967682670862231</v>
+        <v>0</v>
       </c>
       <c r="FF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH9" t="n">
-        <v>-0</v>
+        <v>-0.05459431824287222</v>
       </c>
       <c r="FI9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ9" t="n">
-        <v>-0.0109156924681781</v>
+        <v>0.1000888544170404</v>
       </c>
       <c r="FK9" t="n">
-        <v>-0.02738197524386829</v>
+        <v>0.05858219544902887</v>
       </c>
       <c r="FL9" t="n">
         <v>0</v>
       </c>
       <c r="FM9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN9" t="n">
-        <v>0.02103998411655078</v>
+        <v>-0</v>
       </c>
       <c r="FO9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ9" t="n">
-        <v>0</v>
+        <v>-0.05196896018357288</v>
       </c>
       <c r="FR9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS9" t="n">
-        <v>-0.03451820961398636</v>
+        <v>-0.06672268123162263</v>
       </c>
       <c r="FT9" t="n">
-        <v>0.1617313922032079</v>
+        <v>0.03538622707356667</v>
       </c>
       <c r="FU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV9" t="n">
         <v>-0</v>
       </c>
       <c r="FW9" t="n">
-        <v>-0.01043592424480137</v>
+        <v>0</v>
       </c>
       <c r="FX9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY9" t="n">
         <v>-0</v>
       </c>
       <c r="FZ9" t="n">
-        <v>-0</v>
+        <v>-0.04709241035432318</v>
       </c>
       <c r="GA9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB9" t="n">
-        <v>-0.005715176216627494</v>
+        <v>-0.02943617802589304</v>
       </c>
       <c r="GC9" t="n">
         <v>0</v>
       </c>
       <c r="GD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE9" t="n">
         <v>-0</v>
       </c>
       <c r="GF9" t="n">
-        <v>0.01238387144128735</v>
+        <v>0</v>
       </c>
       <c r="GG9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>-0</v>
+        <v>1.531575622847054</v>
       </c>
       <c r="C10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2585209812915034</v>
+        <v>-0.3035035916383439</v>
       </c>
       <c r="E10" t="n">
-        <v>0.05158966958929707</v>
+        <v>-0.03880238370640448</v>
       </c>
       <c r="F10" t="n">
-        <v>0.003667734656350527</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.07196338887294951</v>
+        <v>-0.01335111260880942</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>-0</v>
+        <v>0.9551797552781358</v>
       </c>
       <c r="L10" t="n">
         <v>-0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2629219629240173</v>
+        <v>-0.4137837530707054</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.05476131247004515</v>
+        <v>-0.3793453029792817</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.005651384882584727</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.1137795344997104</v>
+        <v>0.001874966297832298</v>
       </c>
       <c r="R10" t="n">
         <v>-0</v>
@@ -5613,79 +5613,79 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.3502475606779367</v>
       </c>
       <c r="U10" t="n">
         <v>-0</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.01839772616359866</v>
+        <v>-0.2288679467389948</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.09389990525178385</v>
+        <v>-0.1357098686172994</v>
       </c>
       <c r="X10" t="n">
-        <v>-7.406502310802568e-11</v>
+        <v>-0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0.0389495584112765</v>
+        <v>-1.541093494189866e-10</v>
       </c>
       <c r="AA10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
         <v>-0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>0.3097452210711173</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.1145869852901875</v>
+        <v>0.01518780349784764</v>
       </c>
       <c r="AF10" t="n">
-        <v>-0.103262185434216</v>
+        <v>-0.193087936411644</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.0382299170379631</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
         <v>-0</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.03357729827674161</v>
+        <v>-0.01133545403964669</v>
       </c>
       <c r="AJ10" t="n">
         <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>-0</v>
+        <v>0.1389008999186718</v>
       </c>
       <c r="AM10" t="n">
         <v>-0</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.128162033102014</v>
+        <v>-0.2035750123615001</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.06426380595265127</v>
+        <v>-0.2718032052421592</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.03004484773012574</v>
+        <v>0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.003756256297905257</v>
+        <v>0.1432942661680622</v>
       </c>
       <c r="AS10" t="n">
         <v>0</v>
@@ -5694,79 +5694,79 @@
         <v>-0</v>
       </c>
       <c r="AU10" t="n">
-        <v>-0</v>
+        <v>1.659168444614678</v>
       </c>
       <c r="AV10" t="n">
         <v>-0</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.1082363091424924</v>
+        <v>0.03892165595474622</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.1134808452331545</v>
+        <v>0.4659724973062234</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.05782556746388121</v>
+        <v>-0</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA10" t="n">
-        <v>-0.0697861393818144</v>
+        <v>0.3066557668129501</v>
       </c>
       <c r="BB10" t="n">
         <v>0</v>
       </c>
       <c r="BC10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD10" t="n">
-        <v>0</v>
+        <v>0.2374170934882057</v>
       </c>
       <c r="BE10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.2023355209296483</v>
+        <v>-0.2586506140884827</v>
       </c>
       <c r="BG10" t="n">
-        <v>-0.1098119529439725</v>
+        <v>-0.7483988788107312</v>
       </c>
       <c r="BH10" t="n">
-        <v>-4.965142661265152e-11</v>
+        <v>0</v>
       </c>
       <c r="BI10" t="n">
         <v>-0</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.001987884161531964</v>
+        <v>-7.851553063603998e-11</v>
       </c>
       <c r="BK10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM10" t="n">
-        <v>0</v>
+        <v>0.6579918986640476</v>
       </c>
       <c r="BN10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO10" t="n">
-        <v>-0.008698991625840308</v>
+        <v>0.4399559283625533</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.05880392465612026</v>
+        <v>0.478559856120702</v>
       </c>
       <c r="BQ10" t="n">
-        <v>-0.05051668469406048</v>
+        <v>-0</v>
       </c>
       <c r="BR10" t="n">
         <v>-0</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.09160798287141263</v>
+        <v>0.07729020654223265</v>
       </c>
       <c r="BT10" t="n">
         <v>-0</v>
@@ -5775,295 +5775,295 @@
         <v>-0</v>
       </c>
       <c r="BV10" t="n">
-        <v>-0</v>
+        <v>1.052471888870448</v>
       </c>
       <c r="BW10" t="n">
         <v>-0</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.1758266224320777</v>
+        <v>0.1237086035371414</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.04799304894913659</v>
+        <v>0.1164186891900067</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0.03588485040215523</v>
+        <v>-0</v>
       </c>
       <c r="CA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB10" t="n">
-        <v>-0.1191209802123963</v>
+        <v>0.0009499644208825615</v>
       </c>
       <c r="CC10" t="n">
         <v>0</v>
       </c>
       <c r="CD10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE10" t="n">
-        <v>0</v>
+        <v>-0.4208705522147348</v>
       </c>
       <c r="CF10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG10" t="n">
-        <v>-0.08356518568362201</v>
+        <v>0.03434232356979181</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.003330899909691908</v>
+        <v>-0.115482615303064</v>
       </c>
       <c r="CI10" t="n">
-        <v>-0.01276936862960851</v>
+        <v>-0</v>
       </c>
       <c r="CJ10" t="n">
         <v>-0</v>
       </c>
       <c r="CK10" t="n">
-        <v>0.03729694969721631</v>
+        <v>-0.04745418740933616</v>
       </c>
       <c r="CL10" t="n">
         <v>0</v>
       </c>
       <c r="CM10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN10" t="n">
-        <v>0</v>
+        <v>-0.179683675816605</v>
       </c>
       <c r="CO10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP10" t="n">
-        <v>-0.03478720411932951</v>
+        <v>-0.2474318995594828</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.07647061359174147</v>
+        <v>-0.1014319342180831</v>
       </c>
       <c r="CR10" t="n">
-        <v>-0.05714428308632102</v>
+        <v>0</v>
       </c>
       <c r="CS10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT10" t="n">
-        <v>-0.01097640820710048</v>
+        <v>0.1066017584197897</v>
       </c>
       <c r="CU10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW10" t="n">
-        <v>-0</v>
+        <v>-0.3057406967515879</v>
       </c>
       <c r="CX10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY10" t="n">
-        <v>-0.06049734846154599</v>
+        <v>0.1606741187939322</v>
       </c>
       <c r="CZ10" t="n">
-        <v>-0.002137721425592317</v>
+        <v>-0.1700566288480446</v>
       </c>
       <c r="DA10" t="n">
-        <v>0.01347964404056389</v>
+        <v>0</v>
       </c>
       <c r="DB10" t="n">
         <v>0</v>
       </c>
       <c r="DC10" t="n">
-        <v>0.01987383305519088</v>
+        <v>-0.04346460450210993</v>
       </c>
       <c r="DD10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF10" t="n">
-        <v>0</v>
+        <v>-0.2431737952503816</v>
       </c>
       <c r="DG10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH10" t="n">
-        <v>-0.05010605388678686</v>
+        <v>0.07792466958625295</v>
       </c>
       <c r="DI10" t="n">
-        <v>-0.04471322820327094</v>
+        <v>-0.003492118071903564</v>
       </c>
       <c r="DJ10" t="n">
-        <v>0.004428206147371659</v>
+        <v>0</v>
       </c>
       <c r="DK10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL10" t="n">
-        <v>-0.03853514688968125</v>
+        <v>0.03847894328686548</v>
       </c>
       <c r="DM10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO10" t="n">
-        <v>0</v>
+        <v>-0.2054781217661923</v>
       </c>
       <c r="DP10" t="n">
         <v>0</v>
       </c>
       <c r="DQ10" t="n">
-        <v>0.06573514236386405</v>
+        <v>0.02844770409258144</v>
       </c>
       <c r="DR10" t="n">
-        <v>-0.1283092257557887</v>
+        <v>-0.08172518465307367</v>
       </c>
       <c r="DS10" t="n">
-        <v>-0.0743275129636726</v>
+        <v>0</v>
       </c>
       <c r="DT10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU10" t="n">
-        <v>-0.003003494774873764</v>
+        <v>0.2511386209705995</v>
       </c>
       <c r="DV10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX10" t="n">
-        <v>-0</v>
+        <v>-0.1921276057874205</v>
       </c>
       <c r="DY10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0.01052342207926773</v>
+        <v>-0.06530732372956215</v>
       </c>
       <c r="EA10" t="n">
-        <v>-0.02345957335141653</v>
+        <v>-0.4095713959521108</v>
       </c>
       <c r="EB10" t="n">
-        <v>0.05947353119151146</v>
+        <v>-0</v>
       </c>
       <c r="EC10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED10" t="n">
-        <v>0.03083209601791555</v>
+        <v>0.05887086000406132</v>
       </c>
       <c r="EE10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF10" t="n">
         <v>-0</v>
       </c>
       <c r="EG10" t="n">
-        <v>0</v>
+        <v>-0.2729258655100302</v>
       </c>
       <c r="EH10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI10" t="n">
-        <v>-0.2066568031109308</v>
+        <v>-0.01814653059834721</v>
       </c>
       <c r="EJ10" t="n">
-        <v>0.001169433423319284</v>
+        <v>0.004243777761490923</v>
       </c>
       <c r="EK10" t="n">
-        <v>-0.01385747557461632</v>
+        <v>-0</v>
       </c>
       <c r="EL10" t="n">
         <v>-0</v>
       </c>
       <c r="EM10" t="n">
-        <v>0.0173718397676501</v>
+        <v>0.02600096185906913</v>
       </c>
       <c r="EN10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO10" t="n">
         <v>0</v>
       </c>
       <c r="EP10" t="n">
-        <v>-0</v>
+        <v>-0.3091174324415055</v>
       </c>
       <c r="EQ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER10" t="n">
-        <v>-0.03774417864893223</v>
+        <v>0.2225230300226121</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.03119953235468006</v>
+        <v>-0.3425725795509977</v>
       </c>
       <c r="ET10" t="n">
-        <v>0.1293881625216777</v>
+        <v>-0</v>
       </c>
       <c r="EU10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV10" t="n">
-        <v>-0.02103923281726573</v>
+        <v>-0.318291063748977</v>
       </c>
       <c r="EW10" t="n">
         <v>-0</v>
       </c>
       <c r="EX10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY10" t="n">
-        <v>0</v>
+        <v>-0.3323601671121393</v>
       </c>
       <c r="EZ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA10" t="n">
-        <v>-0.07142894631519887</v>
+        <v>0.08846559432577611</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.00623364884131673</v>
+        <v>-0.04382246201137208</v>
       </c>
       <c r="FC10" t="n">
-        <v>0.01099005939190046</v>
+        <v>-0</v>
       </c>
       <c r="FD10" t="n">
         <v>-0</v>
       </c>
       <c r="FE10" t="n">
-        <v>0.04938412338536065</v>
+        <v>-0.05893173298448707</v>
       </c>
       <c r="FF10" t="n">
         <v>0</v>
       </c>
       <c r="FG10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH10" t="n">
-        <v>0</v>
+        <v>-0.1355718019100721</v>
       </c>
       <c r="FI10" t="n">
         <v>-0</v>
       </c>
       <c r="FJ10" t="n">
-        <v>-0.08292146811581509</v>
+        <v>-0.1604699685116748</v>
       </c>
       <c r="FK10" t="n">
-        <v>0.08533288162313338</v>
+        <v>-0.121117392190496</v>
       </c>
       <c r="FL10" t="n">
-        <v>-0.009449562405865697</v>
+        <v>0</v>
       </c>
       <c r="FM10" t="n">
         <v>-0</v>
       </c>
       <c r="FN10" t="n">
-        <v>-0.01038242464006668</v>
+        <v>0.001602534119166642</v>
       </c>
       <c r="FO10" t="n">
         <v>0</v>
@@ -6072,52 +6072,52 @@
         <v>0</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0</v>
+        <v>-0.4488850784772843</v>
       </c>
       <c r="FR10" t="n">
         <v>0</v>
       </c>
       <c r="FS10" t="n">
-        <v>-0.05378589137532241</v>
+        <v>-0.3062427002878227</v>
       </c>
       <c r="FT10" t="n">
-        <v>0.03802595883108949</v>
+        <v>-0.4650825621738107</v>
       </c>
       <c r="FU10" t="n">
-        <v>-0.1078942498403926</v>
+        <v>-0</v>
       </c>
       <c r="FV10" t="n">
         <v>-0</v>
       </c>
       <c r="FW10" t="n">
-        <v>0.04700904141282176</v>
+        <v>-0.283717000712891</v>
       </c>
       <c r="FX10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY10" t="n">
         <v>-0</v>
       </c>
       <c r="FZ10" t="n">
-        <v>-0</v>
+        <v>-0.201437419299948</v>
       </c>
       <c r="GA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB10" t="n">
-        <v>0.09720770362910311</v>
+        <v>-0.1526121894849035</v>
       </c>
       <c r="GC10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD10" t="n">
-        <v>0.01005426904451163</v>
+        <v>-0</v>
       </c>
       <c r="GE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF10" t="n">
-        <v>-0.0293792391348355</v>
+        <v>0.1424059277992508</v>
       </c>
       <c r="GG10" t="n">
         <v>-0</v>
@@ -6128,19 +6128,19 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.1534473808917248</v>
+        <v>0.2332134933879578</v>
       </c>
       <c r="C11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1632946728227374</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.05795335401056063</v>
+        <v>-0.03544179420758711</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-0.2400530494393987</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -6155,73 +6155,73 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.1253807095400029</v>
+        <v>0.1987251144504411</v>
       </c>
       <c r="L11" t="n">
         <v>-0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1407033230231989</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0.03345629060717231</v>
+        <v>-0.05056407509386532</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>-0.254682874659875</v>
       </c>
       <c r="P11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>-0</v>
       </c>
       <c r="T11" t="n">
-        <v>0.0004131444109068482</v>
+        <v>0.03467117681937926</v>
       </c>
       <c r="U11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.05028695719495382</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.116569247585433</v>
+        <v>0.00202919686654925</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>0.01164633955493513</v>
       </c>
       <c r="Y11" t="n">
         <v>-0</v>
       </c>
       <c r="Z11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.07303378290245099</v>
+        <v>0.04513573810946118</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.08665703441896426</v>
+        <v>-0</v>
       </c>
       <c r="AF11" t="n">
-        <v>-0.06753924738412545</v>
+        <v>0.01479164809285905</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>-0.001309713828557884</v>
       </c>
       <c r="AH11" t="n">
         <v>-0</v>
@@ -6230,79 +6230,79 @@
         <v>-0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
         <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>-0.02640771278716566</v>
+        <v>0.0401583989204484</v>
       </c>
       <c r="AM11" t="n">
         <v>-0</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.01740176556529889</v>
+        <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>-0.03803736635145935</v>
+        <v>-0.005340742034979272</v>
       </c>
       <c r="AP11" t="n">
-        <v>-0</v>
+        <v>-0.05480123820107424</v>
       </c>
       <c r="AQ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR11" t="n">
         <v>-0</v>
       </c>
       <c r="AS11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU11" t="n">
-        <v>-0.08139018664391807</v>
+        <v>0.220563808934693</v>
       </c>
       <c r="AV11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.04186992010572753</v>
+        <v>0</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.02231952750423068</v>
+        <v>0.02391979107662649</v>
       </c>
       <c r="AY11" t="n">
-        <v>0</v>
+        <v>-0.07379284313162224</v>
       </c>
       <c r="AZ11" t="n">
         <v>0</v>
       </c>
       <c r="BA11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB11" t="n">
         <v>0</v>
       </c>
       <c r="BC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD11" t="n">
-        <v>-0.04784286369653002</v>
+        <v>0.09331923496617633</v>
       </c>
       <c r="BE11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.1246943017378367</v>
+        <v>0</v>
       </c>
       <c r="BG11" t="n">
-        <v>-0.01372897568348201</v>
+        <v>-0.1048640403036814</v>
       </c>
       <c r="BH11" t="n">
-        <v>-0</v>
+        <v>-0.1447599157857291</v>
       </c>
       <c r="BI11" t="n">
         <v>-0</v>
@@ -6311,82 +6311,82 @@
         <v>0</v>
       </c>
       <c r="BK11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL11" t="n">
         <v>-0</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.07315192487445585</v>
+        <v>0.1418455940031909</v>
       </c>
       <c r="BN11" t="n">
         <v>0</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.03147638858156936</v>
+        <v>-0</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.00857844005436576</v>
+        <v>0.0840472297757523</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0</v>
+        <v>0.01382281932415459</v>
       </c>
       <c r="BR11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV11" t="n">
-        <v>-0.02967888235058444</v>
+        <v>0.1256486563806616</v>
       </c>
       <c r="BW11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX11" t="n">
-        <v>0.1011683154644471</v>
+        <v>0</v>
       </c>
       <c r="BY11" t="n">
-        <v>-0.05334761592393276</v>
+        <v>-0.005770745469271098</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0</v>
+        <v>-0.04424447158273351</v>
       </c>
       <c r="CA11" t="n">
         <v>-0</v>
       </c>
       <c r="CB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC11" t="n">
         <v>0</v>
       </c>
       <c r="CD11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE11" t="n">
-        <v>0.05270694545112231</v>
+        <v>-0.05778444696850753</v>
       </c>
       <c r="CF11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG11" t="n">
-        <v>-0.04547481532560905</v>
+        <v>-0</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.01494187375921337</v>
+        <v>-0.005188020618768652</v>
       </c>
       <c r="CI11" t="n">
-        <v>0</v>
+        <v>0.05921975239475136</v>
       </c>
       <c r="CJ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK11" t="n">
         <v>0</v>
@@ -6395,25 +6395,25 @@
         <v>0</v>
       </c>
       <c r="CM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.01538659862006301</v>
+        <v>-0.0325321465586089</v>
       </c>
       <c r="CO11" t="n">
         <v>0</v>
       </c>
       <c r="CP11" t="n">
-        <v>-0.03421220029940441</v>
+        <v>0</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.08551513183102571</v>
+        <v>-0.006546337467223458</v>
       </c>
       <c r="CR11" t="n">
-        <v>0</v>
+        <v>-0.0267339833339177</v>
       </c>
       <c r="CS11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT11" t="n">
         <v>-0</v>
@@ -6422,49 +6422,49 @@
         <v>-0</v>
       </c>
       <c r="CV11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW11" t="n">
-        <v>0.05625849636755353</v>
+        <v>-0.03701113695648368</v>
       </c>
       <c r="CX11" t="n">
         <v>-0</v>
       </c>
       <c r="CY11" t="n">
-        <v>-0.03130157919590077</v>
+        <v>0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.01029474453678432</v>
+        <v>0.00210469401672321</v>
       </c>
       <c r="DA11" t="n">
-        <v>0</v>
+        <v>0.05801621785847292</v>
       </c>
       <c r="DB11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC11" t="n">
         <v>-0</v>
       </c>
       <c r="DD11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF11" t="n">
-        <v>0.04202167937134332</v>
+        <v>-0.06467916589949237</v>
       </c>
       <c r="DG11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH11" t="n">
-        <v>-0.0424470640411822</v>
+        <v>-0</v>
       </c>
       <c r="DI11" t="n">
-        <v>-0.01795034066220752</v>
+        <v>0.03609113386296669</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0</v>
+        <v>-0.002820911883901143</v>
       </c>
       <c r="DK11" t="n">
         <v>0</v>
@@ -6473,31 +6473,31 @@
         <v>0</v>
       </c>
       <c r="DM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN11" t="n">
         <v>-0</v>
       </c>
       <c r="DO11" t="n">
-        <v>0.02452528338465453</v>
+        <v>-0.04143633505464896</v>
       </c>
       <c r="DP11" t="n">
         <v>0</v>
       </c>
       <c r="DQ11" t="n">
-        <v>-0.001093743422508977</v>
+        <v>-0</v>
       </c>
       <c r="DR11" t="n">
-        <v>0.05910267035201277</v>
+        <v>0.02103675142362633</v>
       </c>
       <c r="DS11" t="n">
-        <v>0</v>
+        <v>-0.0160852879469403</v>
       </c>
       <c r="DT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV11" t="n">
         <v>0</v>
@@ -6506,52 +6506,52 @@
         <v>-0</v>
       </c>
       <c r="DX11" t="n">
-        <v>0.02560663614094675</v>
+        <v>-0.00123684261127811</v>
       </c>
       <c r="DY11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ11" t="n">
-        <v>0.05690783311093311</v>
+        <v>-0</v>
       </c>
       <c r="EA11" t="n">
-        <v>-0.02659004463032623</v>
+        <v>-0.02531081575052967</v>
       </c>
       <c r="EB11" t="n">
-        <v>0</v>
+        <v>0.009240720354841796</v>
       </c>
       <c r="EC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED11" t="n">
         <v>-0</v>
       </c>
       <c r="EE11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF11" t="n">
         <v>0</v>
       </c>
       <c r="EG11" t="n">
-        <v>0.04022439964108607</v>
+        <v>-0.004732692751279164</v>
       </c>
       <c r="EH11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI11" t="n">
-        <v>-0.06585662352661474</v>
+        <v>-0</v>
       </c>
       <c r="EJ11" t="n">
-        <v>-0.01426379758014617</v>
+        <v>0.002637836184552318</v>
       </c>
       <c r="EK11" t="n">
-        <v>-0</v>
+        <v>0.05082868573023527</v>
       </c>
       <c r="EL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN11" t="n">
         <v>0</v>
@@ -6560,19 +6560,19 @@
         <v>0</v>
       </c>
       <c r="EP11" t="n">
-        <v>0.04594737468653244</v>
+        <v>-0.017528695752473</v>
       </c>
       <c r="EQ11" t="n">
         <v>0</v>
       </c>
       <c r="ER11" t="n">
-        <v>0.01429665367797457</v>
+        <v>-0</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.01910514550242111</v>
+        <v>-0.007591795309097581</v>
       </c>
       <c r="ET11" t="n">
-        <v>-0</v>
+        <v>0.05440216800615946</v>
       </c>
       <c r="EU11" t="n">
         <v>-0</v>
@@ -6587,49 +6587,49 @@
         <v>-0</v>
       </c>
       <c r="EY11" t="n">
-        <v>0.04727643995258798</v>
+        <v>-0.03538202322432573</v>
       </c>
       <c r="EZ11" t="n">
         <v>0</v>
       </c>
       <c r="FA11" t="n">
-        <v>-0.03404924272082818</v>
+        <v>-0</v>
       </c>
       <c r="FB11" t="n">
-        <v>0.01894923458444746</v>
+        <v>0.002171032440537826</v>
       </c>
       <c r="FC11" t="n">
-        <v>-0</v>
+        <v>0.06288410224842225</v>
       </c>
       <c r="FD11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE11" t="n">
         <v>0</v>
       </c>
       <c r="FF11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG11" t="n">
         <v>-0</v>
       </c>
       <c r="FH11" t="n">
-        <v>0.05739088590397438</v>
+        <v>-0.02934258166379928</v>
       </c>
       <c r="FI11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ11" t="n">
-        <v>-0.03328521562497628</v>
+        <v>-0</v>
       </c>
       <c r="FK11" t="n">
-        <v>-0.02865443830236635</v>
+        <v>-0.0230812351932118</v>
       </c>
       <c r="FL11" t="n">
-        <v>0</v>
+        <v>0.03652020342362567</v>
       </c>
       <c r="FM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN11" t="n">
         <v>-0</v>
@@ -6638,22 +6638,22 @@
         <v>0</v>
       </c>
       <c r="FP11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0.01724088811365675</v>
+        <v>0.0005432634856441182</v>
       </c>
       <c r="FR11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS11" t="n">
-        <v>0.08112394275351235</v>
+        <v>-0</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.05629022608142023</v>
+        <v>-0.04779573900838213</v>
       </c>
       <c r="FU11" t="n">
-        <v>0</v>
+        <v>0.03962280391314596</v>
       </c>
       <c r="FV11" t="n">
         <v>-0</v>
@@ -6662,28 +6662,28 @@
         <v>-0</v>
       </c>
       <c r="FX11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0.02517220217948245</v>
+        <v>-0.05956890083089189</v>
       </c>
       <c r="GA11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB11" t="n">
-        <v>0.04124237698547588</v>
+        <v>-0</v>
       </c>
       <c r="GC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD11" t="n">
-        <v>-0</v>
+        <v>-0.03368527685343767</v>
       </c>
       <c r="GE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF11" t="n">
         <v>-0</v>
@@ -6694,55 +6694,55 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>-0</v>
+        <v>0.4896064756208952</v>
       </c>
       <c r="C12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3254515136426151</v>
+        <v>-0.2309028801923033</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.01804724066101919</v>
+        <v>-0.08305684167446767</v>
       </c>
       <c r="F12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.1423296594066035</v>
+        <v>-0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.3771184643092149</v>
       </c>
       <c r="L12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3221974433803614</v>
+        <v>-0.2217467417972209</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.1168765073111369</v>
+        <v>-0.1657725038647826</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.2214736236291468</v>
+        <v>-0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -6751,52 +6751,52 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>0.1514495471127581</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0.002601051720372369</v>
+        <v>-0.02533807917614491</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.2049813346712974</v>
+        <v>-0.01149115641329817</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0.1070205526406826</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0</v>
+        <v>0.1685646122372646</v>
       </c>
       <c r="AD12" t="n">
         <v>-0</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.1198429153949884</v>
+        <v>-0.005783715539000877</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.0186402438493138</v>
+        <v>-0.02774278678802661</v>
       </c>
       <c r="AG12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH12" t="n">
         <v>-0</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.05534451753079755</v>
+        <v>-0</v>
       </c>
       <c r="AJ12" t="n">
         <v>-0</v>
@@ -6805,178 +6805,178 @@
         <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>-0</v>
+        <v>0.094142529651131</v>
       </c>
       <c r="AM12" t="n">
         <v>0</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.1407613921665049</v>
+        <v>-0.07197125697890189</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.06958958202907693</v>
+        <v>-0.09287561639270131</v>
       </c>
       <c r="AP12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR12" t="n">
-        <v>-0.0481598922277507</v>
+        <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT12" t="n">
         <v>-0</v>
       </c>
       <c r="AU12" t="n">
-        <v>-0</v>
+        <v>0.449988655398409</v>
       </c>
       <c r="AV12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.119983395975093</v>
+        <v>-0.03919735328449044</v>
       </c>
       <c r="AX12" t="n">
-        <v>-0.01056484093810196</v>
+        <v>0.07953876210570165</v>
       </c>
       <c r="AY12" t="n">
         <v>-0</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA12" t="n">
-        <v>-0.1620955789056948</v>
+        <v>0</v>
       </c>
       <c r="BB12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC12" t="n">
         <v>0</v>
       </c>
       <c r="BD12" t="n">
-        <v>0</v>
+        <v>0.04143062651144329</v>
       </c>
       <c r="BE12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.2575818146769418</v>
+        <v>-0.101573390318132</v>
       </c>
       <c r="BG12" t="n">
-        <v>-0.02768600357164953</v>
+        <v>-0.2991556467980564</v>
       </c>
       <c r="BH12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI12" t="n">
         <v>-0</v>
       </c>
       <c r="BJ12" t="n">
-        <v>-0.01019415947808073</v>
+        <v>0</v>
       </c>
       <c r="BK12" t="n">
         <v>0</v>
       </c>
       <c r="BL12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM12" t="n">
-        <v>-0</v>
+        <v>0.1139217433462815</v>
       </c>
       <c r="BN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.03730571732168032</v>
+        <v>0.1320805763540848</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.009444387714880487</v>
+        <v>0.05254725485349346</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR12" t="n">
         <v>-0</v>
       </c>
       <c r="BS12" t="n">
-        <v>0.1215869391884171</v>
+        <v>-0</v>
       </c>
       <c r="BT12" t="n">
         <v>-0</v>
       </c>
       <c r="BU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV12" t="n">
-        <v>-0</v>
+        <v>0.2908355736057165</v>
       </c>
       <c r="BW12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX12" t="n">
-        <v>0.1860322442555087</v>
+        <v>-0.06328912260933217</v>
       </c>
       <c r="BY12" t="n">
-        <v>-0.0444456687476151</v>
+        <v>0.01749062430093183</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB12" t="n">
-        <v>-0.1813013619782408</v>
+        <v>0</v>
       </c>
       <c r="CC12" t="n">
         <v>0</v>
       </c>
       <c r="CD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE12" t="n">
-        <v>-0</v>
+        <v>-0.1263924641525344</v>
       </c>
       <c r="CF12" t="n">
         <v>0</v>
       </c>
       <c r="CG12" t="n">
-        <v>-0.09399318894306956</v>
+        <v>0.02768457033507683</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.04259790395114964</v>
+        <v>-0.01981898095853956</v>
       </c>
       <c r="CI12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK12" t="n">
-        <v>0.06482538357186966</v>
+        <v>0</v>
       </c>
       <c r="CL12" t="n">
         <v>0</v>
       </c>
       <c r="CM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN12" t="n">
-        <v>-0</v>
+        <v>-0.01740565730966163</v>
       </c>
       <c r="CO12" t="n">
         <v>0</v>
       </c>
       <c r="CP12" t="n">
-        <v>-0.08466985381014275</v>
+        <v>-0.07546322297380918</v>
       </c>
       <c r="CQ12" t="n">
-        <v>0.1055761359163568</v>
+        <v>-0.05070972909565125</v>
       </c>
       <c r="CR12" t="n">
         <v>0</v>
@@ -6985,34 +6985,34 @@
         <v>-0</v>
       </c>
       <c r="CT12" t="n">
-        <v>0.04895804768323334</v>
+        <v>-0</v>
       </c>
       <c r="CU12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW12" t="n">
-        <v>0</v>
+        <v>-0.09244459591766871</v>
       </c>
       <c r="CX12" t="n">
         <v>-0</v>
       </c>
       <c r="CY12" t="n">
-        <v>-0.08486309684653501</v>
+        <v>0.06372778039049073</v>
       </c>
       <c r="CZ12" t="n">
-        <v>0.04954351533182966</v>
+        <v>-0.02503985164411303</v>
       </c>
       <c r="DA12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC12" t="n">
-        <v>0.06723685332419295</v>
+        <v>-0</v>
       </c>
       <c r="DD12" t="n">
         <v>-0</v>
@@ -7021,52 +7021,52 @@
         <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>0</v>
+        <v>-0.04027687466550523</v>
       </c>
       <c r="DG12" t="n">
         <v>0</v>
       </c>
       <c r="DH12" t="n">
-        <v>-0.0266776869927435</v>
+        <v>0.04008456396513282</v>
       </c>
       <c r="DI12" t="n">
-        <v>-0.1591963523111268</v>
+        <v>0.004273033938194803</v>
       </c>
       <c r="DJ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL12" t="n">
-        <v>-0.0157478626853426</v>
+        <v>0</v>
       </c>
       <c r="DM12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO12" t="n">
-        <v>0</v>
+        <v>-0.05554651492820605</v>
       </c>
       <c r="DP12" t="n">
         <v>0</v>
       </c>
       <c r="DQ12" t="n">
-        <v>0.06118862699736479</v>
+        <v>0.004025791734242228</v>
       </c>
       <c r="DR12" t="n">
-        <v>-0.004705581864164526</v>
+        <v>-0.06824269948297181</v>
       </c>
       <c r="DS12" t="n">
         <v>0</v>
       </c>
       <c r="DT12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU12" t="n">
-        <v>-0.01590104602304412</v>
+        <v>-0</v>
       </c>
       <c r="DV12" t="n">
         <v>0</v>
@@ -7075,52 +7075,52 @@
         <v>0</v>
       </c>
       <c r="DX12" t="n">
-        <v>-0</v>
+        <v>0.01240828334058672</v>
       </c>
       <c r="DY12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0.05616167259402286</v>
+        <v>0.02795782960921392</v>
       </c>
       <c r="EA12" t="n">
-        <v>-0.1005083036182634</v>
+        <v>-0.01501967967656154</v>
       </c>
       <c r="EB12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED12" t="n">
-        <v>-0.04320885304661218</v>
+        <v>0</v>
       </c>
       <c r="EE12" t="n">
         <v>-0</v>
       </c>
       <c r="EF12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG12" t="n">
-        <v>-0</v>
+        <v>-0.05745877501571076</v>
       </c>
       <c r="EH12" t="n">
         <v>0</v>
       </c>
       <c r="EI12" t="n">
-        <v>-0.1901187025105572</v>
+        <v>0.08090235799642295</v>
       </c>
       <c r="EJ12" t="n">
-        <v>-0.05642820434837589</v>
+        <v>0.05345401525280432</v>
       </c>
       <c r="EK12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL12" t="n">
         <v>-0</v>
       </c>
       <c r="EM12" t="n">
-        <v>0.09586666486824799</v>
+        <v>-0</v>
       </c>
       <c r="EN12" t="n">
         <v>0</v>
@@ -7129,70 +7129,70 @@
         <v>0</v>
       </c>
       <c r="EP12" t="n">
-        <v>-0</v>
+        <v>-0.0951908767739568</v>
       </c>
       <c r="EQ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER12" t="n">
-        <v>-0.09277482392150699</v>
+        <v>0.07941046388922951</v>
       </c>
       <c r="ES12" t="n">
-        <v>0.06875534868269965</v>
+        <v>0.01546908025777557</v>
       </c>
       <c r="ET12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV12" t="n">
-        <v>-0.06030872546921136</v>
+        <v>0</v>
       </c>
       <c r="EW12" t="n">
         <v>-0</v>
       </c>
       <c r="EX12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY12" t="n">
-        <v>-0</v>
+        <v>-0.09888292185145392</v>
       </c>
       <c r="EZ12" t="n">
         <v>0</v>
       </c>
       <c r="FA12" t="n">
-        <v>-0.07955835385821355</v>
+        <v>0.06765186331558917</v>
       </c>
       <c r="FB12" t="n">
-        <v>0.0490773512290636</v>
+        <v>-0.02020214186556918</v>
       </c>
       <c r="FC12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE12" t="n">
-        <v>0.0722736687396477</v>
+        <v>0</v>
       </c>
       <c r="FF12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH12" t="n">
-        <v>0</v>
+        <v>-0.02176354429448201</v>
       </c>
       <c r="FI12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ12" t="n">
-        <v>-0.03611295686357759</v>
+        <v>0.07960796045175664</v>
       </c>
       <c r="FK12" t="n">
-        <v>0.01714619325992922</v>
+        <v>-0.04367884813112553</v>
       </c>
       <c r="FL12" t="n">
         <v>0</v>
@@ -7201,34 +7201,34 @@
         <v>0</v>
       </c>
       <c r="FN12" t="n">
-        <v>0.04513761269020251</v>
+        <v>-0</v>
       </c>
       <c r="FO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP12" t="n">
         <v>0</v>
       </c>
       <c r="FQ12" t="n">
-        <v>-0</v>
+        <v>-0.006567479633126588</v>
       </c>
       <c r="FR12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS12" t="n">
-        <v>-0.07743062572301514</v>
+        <v>0.02453349919864233</v>
       </c>
       <c r="FT12" t="n">
-        <v>0.1135820993367552</v>
+        <v>0.01375657060832267</v>
       </c>
       <c r="FU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV12" t="n">
         <v>-0</v>
       </c>
       <c r="FW12" t="n">
-        <v>0.08622493772634525</v>
+        <v>0</v>
       </c>
       <c r="FX12" t="n">
         <v>0</v>
@@ -7237,25 +7237,25 @@
         <v>-0</v>
       </c>
       <c r="FZ12" t="n">
-        <v>-0</v>
+        <v>-0.007896691870030408</v>
       </c>
       <c r="GA12" t="n">
         <v>-0</v>
       </c>
       <c r="GB12" t="n">
-        <v>0.05677446517367843</v>
+        <v>-0.03652229951168325</v>
       </c>
       <c r="GC12" t="n">
         <v>0</v>
       </c>
       <c r="GD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE12" t="n">
         <v>-0</v>
       </c>
       <c r="GF12" t="n">
-        <v>0.0007851934319507772</v>
+        <v>0</v>
       </c>
       <c r="GG12" t="n">
         <v>-0</v>
@@ -7263,25 +7263,25 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4105053516096451</v>
+        <v>-0.4038779656272438</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1777121545347426</v>
+        <v>-0</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.04575160744754186</v>
+        <v>0.252940822526486</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1.004293458228433</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -7293,22 +7293,22 @@
         <v>-0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4116108874193447</v>
+        <v>-0.35082889039237</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.1451287088194577</v>
+        <v>-0</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.005880386638438831</v>
+        <v>0.0456529205747749</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>0.9486198483704671</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -7320,19 +7320,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0.03456166804364839</v>
+        <v>0.007323211930176531</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V13" t="n">
-        <v>0.04601711025007083</v>
+        <v>-0</v>
       </c>
       <c r="W13" t="n">
-        <v>0.257191380586253</v>
+        <v>0.3648031684274533</v>
       </c>
       <c r="X13" t="n">
-        <v>-0</v>
+        <v>0.1476500601528246</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -7344,28 +7344,28 @@
         <v>-0</v>
       </c>
       <c r="AB13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.1520727449879508</v>
+        <v>-0.007262553587481343</v>
       </c>
       <c r="AD13" t="n">
         <v>-0</v>
       </c>
       <c r="AE13" t="n">
-        <v>-0.1061971668782214</v>
+        <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.03684235441810538</v>
+        <v>-0.08842377121394167</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>0.1192495607529106</v>
       </c>
       <c r="AH13" t="n">
         <v>-0</v>
       </c>
       <c r="AI13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ13" t="n">
         <v>0</v>
@@ -7374,46 +7374,46 @@
         <v>-0</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.07429029736976131</v>
+        <v>-0.05543900485881876</v>
       </c>
       <c r="AM13" t="n">
         <v>0</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.04062596715161566</v>
+        <v>-0</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.02891000639486783</v>
+        <v>-0.05540884590526624</v>
       </c>
       <c r="AP13" t="n">
-        <v>0</v>
+        <v>0.1360647849376689</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT13" t="n">
         <v>-0</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.303702773235509</v>
+        <v>-0.2456124845371395</v>
       </c>
       <c r="AV13" t="n">
         <v>0</v>
       </c>
       <c r="AW13" t="n">
-        <v>-0.007038266646185712</v>
+        <v>-0</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.01825855266322028</v>
+        <v>0.3421987864202187</v>
       </c>
       <c r="AY13" t="n">
-        <v>-0</v>
+        <v>0.6302369896101782</v>
       </c>
       <c r="AZ13" t="n">
         <v>-0</v>
@@ -7428,25 +7428,25 @@
         <v>0</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.09387713573665307</v>
+        <v>-0.2548358148685912</v>
       </c>
       <c r="BE13" t="n">
         <v>-0</v>
       </c>
       <c r="BF13" t="n">
-        <v>-0.1260821393081104</v>
+        <v>-0</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.01066443336802232</v>
+        <v>0.0218438821155179</v>
       </c>
       <c r="BH13" t="n">
-        <v>0</v>
+        <v>0.2968843695086321</v>
       </c>
       <c r="BI13" t="n">
         <v>0</v>
       </c>
       <c r="BJ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BK13" t="n">
         <v>0</v>
@@ -7455,19 +7455,19 @@
         <v>0</v>
       </c>
       <c r="BM13" t="n">
-        <v>-0.06307298096181221</v>
+        <v>-0.1807245679610263</v>
       </c>
       <c r="BN13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO13" t="n">
-        <v>-0.07478198082014426</v>
+        <v>-0</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.04688213898818535</v>
+        <v>-0.0376486874184526</v>
       </c>
       <c r="BQ13" t="n">
-        <v>-0</v>
+        <v>0.01328882608151478</v>
       </c>
       <c r="BR13" t="n">
         <v>-0</v>
@@ -7479,22 +7479,22 @@
         <v>-0</v>
       </c>
       <c r="BU13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV13" t="n">
-        <v>0.1048824467253481</v>
+        <v>-0.2462451899738088</v>
       </c>
       <c r="BW13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BX13" t="n">
-        <v>-0.1027031508375406</v>
+        <v>-0</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.0974962953914003</v>
+        <v>0.2647256661989952</v>
       </c>
       <c r="BZ13" t="n">
-        <v>-0</v>
+        <v>0.527206857049178</v>
       </c>
       <c r="CA13" t="n">
         <v>-0</v>
@@ -7506,106 +7506,106 @@
         <v>-0</v>
       </c>
       <c r="CD13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE13" t="n">
-        <v>-0.1402306229580062</v>
+        <v>0.08447725089768096</v>
       </c>
       <c r="CF13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG13" t="n">
-        <v>0.0433431898302585</v>
+        <v>0</v>
       </c>
       <c r="CH13" t="n">
-        <v>-0.01651617436228763</v>
+        <v>-0.06434347419159975</v>
       </c>
       <c r="CI13" t="n">
-        <v>-0</v>
+        <v>-0.2316991681850791</v>
       </c>
       <c r="CJ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK13" t="n">
         <v>-0</v>
       </c>
       <c r="CL13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM13" t="n">
         <v>-0</v>
       </c>
       <c r="CN13" t="n">
-        <v>-0.04318877075322965</v>
+        <v>-0.001638102472490346</v>
       </c>
       <c r="CO13" t="n">
         <v>0</v>
       </c>
       <c r="CP13" t="n">
-        <v>0.02516819980696075</v>
+        <v>0</v>
       </c>
       <c r="CQ13" t="n">
-        <v>-0.1250420152505217</v>
+        <v>-0.185656862387951</v>
       </c>
       <c r="CR13" t="n">
-        <v>-0</v>
+        <v>-0.04180492059408605</v>
       </c>
       <c r="CS13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT13" t="n">
         <v>0</v>
       </c>
       <c r="CU13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV13" t="n">
         <v>0</v>
       </c>
       <c r="CW13" t="n">
-        <v>-0.1247835990795737</v>
+        <v>0.06305996825655596</v>
       </c>
       <c r="CX13" t="n">
         <v>0</v>
       </c>
       <c r="CY13" t="n">
-        <v>0.05523027724270604</v>
+        <v>-0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>-0.02943473011199771</v>
+        <v>-0.07296972230142253</v>
       </c>
       <c r="DA13" t="n">
-        <v>0</v>
+        <v>-0.2277076493561072</v>
       </c>
       <c r="DB13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC13" t="n">
         <v>0</v>
       </c>
       <c r="DD13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE13" t="n">
         <v>-0</v>
       </c>
       <c r="DF13" t="n">
-        <v>-0.1433839765392519</v>
+        <v>-0.0144655441839394</v>
       </c>
       <c r="DG13" t="n">
         <v>0</v>
       </c>
       <c r="DH13" t="n">
-        <v>0.005599989730496158</v>
+        <v>0</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.03227931657903964</v>
+        <v>-0.173822266938652</v>
       </c>
       <c r="DJ13" t="n">
-        <v>-0</v>
+        <v>-0.04429230440509047</v>
       </c>
       <c r="DK13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL13" t="n">
         <v>-0</v>
@@ -7617,46 +7617,46 @@
         <v>-0</v>
       </c>
       <c r="DO13" t="n">
-        <v>-0.06289007642703269</v>
+        <v>-0.071168355887666</v>
       </c>
       <c r="DP13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ13" t="n">
-        <v>0.01821376166049129</v>
+        <v>0</v>
       </c>
       <c r="DR13" t="n">
-        <v>-0.07883042126688701</v>
+        <v>-0.119166323047539</v>
       </c>
       <c r="DS13" t="n">
-        <v>0</v>
+        <v>-0.1067744411414192</v>
       </c>
       <c r="DT13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV13" t="n">
         <v>0</v>
       </c>
       <c r="DW13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX13" t="n">
-        <v>-0.07877895677225022</v>
+        <v>-0.068564282564954</v>
       </c>
       <c r="DY13" t="n">
         <v>0</v>
       </c>
       <c r="DZ13" t="n">
-        <v>-0.008774389353827202</v>
+        <v>-0</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.03990757080045594</v>
+        <v>-0.08325850587336775</v>
       </c>
       <c r="EB13" t="n">
-        <v>-0</v>
+        <v>-0.146120686586263</v>
       </c>
       <c r="EC13" t="n">
         <v>-0</v>
@@ -7668,25 +7668,25 @@
         <v>-0</v>
       </c>
       <c r="EF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG13" t="n">
-        <v>-0.1009414668642584</v>
+        <v>0.1140250382198324</v>
       </c>
       <c r="EH13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI13" t="n">
-        <v>0.1012127476795519</v>
+        <v>-0</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.07630038598610094</v>
+        <v>-0.1275624402340746</v>
       </c>
       <c r="EK13" t="n">
-        <v>-0</v>
+        <v>-0.1873279686156629</v>
       </c>
       <c r="EL13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM13" t="n">
         <v>-0</v>
@@ -7698,19 +7698,19 @@
         <v>0</v>
       </c>
       <c r="EP13" t="n">
-        <v>-0.04671589335220731</v>
+        <v>0.02317844835887528</v>
       </c>
       <c r="EQ13" t="n">
         <v>-0</v>
       </c>
       <c r="ER13" t="n">
-        <v>-0.04534662459227412</v>
+        <v>-0</v>
       </c>
       <c r="ES13" t="n">
-        <v>-0.04592424076823043</v>
+        <v>-0.06519178837433443</v>
       </c>
       <c r="ET13" t="n">
-        <v>-0</v>
+        <v>-0.1277610607903486</v>
       </c>
       <c r="EU13" t="n">
         <v>0</v>
@@ -7722,25 +7722,25 @@
         <v>0</v>
       </c>
       <c r="EX13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY13" t="n">
-        <v>-0.1211049318125944</v>
+        <v>0.06173667903328039</v>
       </c>
       <c r="EZ13" t="n">
         <v>-0</v>
       </c>
       <c r="FA13" t="n">
-        <v>0.04332601856855604</v>
+        <v>0</v>
       </c>
       <c r="FB13" t="n">
-        <v>-0.03160551692452284</v>
+        <v>-0.1325270370104459</v>
       </c>
       <c r="FC13" t="n">
-        <v>-0</v>
+        <v>-0.2097606973381144</v>
       </c>
       <c r="FD13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE13" t="n">
         <v>-0</v>
@@ -7749,55 +7749,55 @@
         <v>0</v>
       </c>
       <c r="FG13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH13" t="n">
-        <v>0.06837673708505822</v>
+        <v>0.06555520408405964</v>
       </c>
       <c r="FI13" t="n">
         <v>-0</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0.09006782494967472</v>
+        <v>0</v>
       </c>
       <c r="FK13" t="n">
-        <v>-0.002014320150486311</v>
+        <v>-0.08483116572936242</v>
       </c>
       <c r="FL13" t="n">
-        <v>-0</v>
+        <v>0.0462952873793121</v>
       </c>
       <c r="FM13" t="n">
         <v>0</v>
       </c>
       <c r="FN13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO13" t="n">
         <v>-0</v>
       </c>
       <c r="FP13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0.01084992507859142</v>
+        <v>-0.04434455247705738</v>
       </c>
       <c r="FR13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS13" t="n">
-        <v>-0.01682537494686495</v>
+        <v>0</v>
       </c>
       <c r="FT13" t="n">
-        <v>-0.06587111176373296</v>
+        <v>-0.2293599955196605</v>
       </c>
       <c r="FU13" t="n">
-        <v>-0</v>
+        <v>0.05722675267057771</v>
       </c>
       <c r="FV13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX13" t="n">
         <v>-0</v>
@@ -7806,25 +7806,25 @@
         <v>0</v>
       </c>
       <c r="FZ13" t="n">
-        <v>-0.1370064509533431</v>
+        <v>-0.05345951618917034</v>
       </c>
       <c r="GA13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GB13" t="n">
-        <v>-0.0270917635719132</v>
+        <v>-0</v>
       </c>
       <c r="GC13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD13" t="n">
-        <v>0</v>
+        <v>-0.006450741157154226</v>
       </c>
       <c r="GE13" t="n">
         <v>0</v>
       </c>
       <c r="GF13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG13" t="n">
         <v>-0</v>
@@ -7832,19 +7832,19 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.3815421427782263</v>
+        <v>0.2644734543839846</v>
       </c>
       <c r="B14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.2730766677363072</v>
+        <v>-0.1947782831286061</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1377463462580811</v>
+        <v>0.1671644348028725</v>
       </c>
       <c r="F14" t="n">
         <v>-0</v>
@@ -7856,22 +7856,22 @@
         <v>-0</v>
       </c>
       <c r="I14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.3668922242121368</v>
+        <v>0.2938076692936429</v>
       </c>
       <c r="K14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.2511916770089828</v>
+        <v>-0.08577461176398686</v>
       </c>
       <c r="N14" t="n">
-        <v>0.05731210530539642</v>
+        <v>0.1017940581280179</v>
       </c>
       <c r="O14" t="n">
         <v>-0</v>
@@ -7880,28 +7880,28 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0.02079767393641494</v>
+        <v>0.05076803041991047</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V14" t="n">
-        <v>-0.09778567980796729</v>
+        <v>0.1172659853958707</v>
       </c>
       <c r="W14" t="n">
-        <v>0.02001643354548816</v>
+        <v>0.09223618383499266</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y14" t="n">
         <v>-0</v>
@@ -7910,22 +7910,22 @@
         <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.0206575179286997</v>
+        <v>-0.08052758829533892</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>-0.02984458291206231</v>
+        <v>-0.04461024431856998</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.04468901963579033</v>
+        <v>-0.036601401698017</v>
       </c>
       <c r="AG14" t="n">
         <v>0</v>
@@ -7940,19 +7940,19 @@
         <v>-0</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.1327688133389556</v>
+        <v>-0.0244040841119672</v>
       </c>
       <c r="AL14" t="n">
         <v>0</v>
       </c>
       <c r="AM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN14" t="n">
-        <v>-0.1190032914702596</v>
+        <v>-0.02198507996598279</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.003415679896645485</v>
+        <v>-0.06874553309499501</v>
       </c>
       <c r="AP14" t="n">
         <v>0</v>
@@ -7964,49 +7964,49 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.1631370039143673</v>
+        <v>0.1190428792976139</v>
       </c>
       <c r="AU14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW14" t="n">
-        <v>-0.06850780002567219</v>
+        <v>-0.04390090374942773</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.09876554600106162</v>
+        <v>0.1862621093376844</v>
       </c>
       <c r="AY14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB14" t="n">
         <v>-0</v>
       </c>
       <c r="BC14" t="n">
-        <v>0.1404655093234017</v>
+        <v>0.225583641681062</v>
       </c>
       <c r="BD14" t="n">
         <v>0</v>
       </c>
       <c r="BE14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BF14" t="n">
-        <v>-0.1346406302217551</v>
+        <v>-0.01824311579764173</v>
       </c>
       <c r="BG14" t="n">
-        <v>0.07622709230042714</v>
+        <v>0.0689647680612504</v>
       </c>
       <c r="BH14" t="n">
         <v>0</v>
@@ -8018,76 +8018,76 @@
         <v>0</v>
       </c>
       <c r="BK14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL14" t="n">
-        <v>-0.05739673167256733</v>
+        <v>0.07697478273003901</v>
       </c>
       <c r="BM14" t="n">
         <v>0</v>
       </c>
       <c r="BN14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO14" t="n">
-        <v>-0.03160821478510073</v>
+        <v>0.03494282299929821</v>
       </c>
       <c r="BP14" t="n">
-        <v>0.05488638386760638</v>
+        <v>0.162093032367576</v>
       </c>
       <c r="BQ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR14" t="n">
         <v>0</v>
       </c>
       <c r="BS14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT14" t="n">
         <v>-0</v>
       </c>
       <c r="BU14" t="n">
-        <v>0.2485941170270312</v>
+        <v>0.08010198631705157</v>
       </c>
       <c r="BV14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW14" t="n">
         <v>-0</v>
       </c>
       <c r="BX14" t="n">
-        <v>-0.1045080655003978</v>
+        <v>0.01084659754069752</v>
       </c>
       <c r="BY14" t="n">
-        <v>0.1165008691677233</v>
+        <v>0.1446953566179339</v>
       </c>
       <c r="BZ14" t="n">
         <v>0</v>
       </c>
       <c r="CA14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC14" t="n">
         <v>-0</v>
       </c>
       <c r="CD14" t="n">
-        <v>-0.1084516273943843</v>
+        <v>-0.04510280511768187</v>
       </c>
       <c r="CE14" t="n">
         <v>0</v>
       </c>
       <c r="CF14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG14" t="n">
-        <v>0.05292210114749277</v>
+        <v>-0.01992012597227296</v>
       </c>
       <c r="CH14" t="n">
-        <v>-0.05200472013408648</v>
+        <v>-0.04610688845684497</v>
       </c>
       <c r="CI14" t="n">
         <v>0</v>
@@ -8102,46 +8102,46 @@
         <v>-0</v>
       </c>
       <c r="CM14" t="n">
-        <v>-0.06439705871521906</v>
+        <v>-0.06613730423390181</v>
       </c>
       <c r="CN14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CO14" t="n">
         <v>-0</v>
       </c>
       <c r="CP14" t="n">
-        <v>-0.04943733169131482</v>
+        <v>-0.1630869772532761</v>
       </c>
       <c r="CQ14" t="n">
-        <v>-0.1442990193834992</v>
+        <v>-0.1453553463199664</v>
       </c>
       <c r="CR14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT14" t="n">
         <v>-0</v>
       </c>
       <c r="CU14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV14" t="n">
-        <v>-0.09704335347773167</v>
+        <v>-0.02759707254027938</v>
       </c>
       <c r="CW14" t="n">
         <v>-0</v>
       </c>
       <c r="CX14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY14" t="n">
-        <v>0.03240295085796081</v>
+        <v>0.008119419753870698</v>
       </c>
       <c r="CZ14" t="n">
-        <v>-0.07971911223449986</v>
+        <v>-0.03548651615657572</v>
       </c>
       <c r="DA14" t="n">
         <v>-0</v>
@@ -8156,19 +8156,19 @@
         <v>0</v>
       </c>
       <c r="DE14" t="n">
-        <v>-0.00256268311031529</v>
+        <v>-0.02976916052095906</v>
       </c>
       <c r="DF14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH14" t="n">
-        <v>-0.001490211395322627</v>
+        <v>0.1015718723951174</v>
       </c>
       <c r="DI14" t="n">
-        <v>0.0674232251684193</v>
+        <v>-0.04777762138342724</v>
       </c>
       <c r="DJ14" t="n">
         <v>0</v>
@@ -8177,58 +8177,58 @@
         <v>-0</v>
       </c>
       <c r="DL14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN14" t="n">
-        <v>0.02107270117855131</v>
+        <v>-0.04324590238342792</v>
       </c>
       <c r="DO14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ14" t="n">
-        <v>-0.004045601588455227</v>
+        <v>0.06840419933344914</v>
       </c>
       <c r="DR14" t="n">
-        <v>0.02949699929114327</v>
+        <v>-0.1169450445450007</v>
       </c>
       <c r="DS14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV14" t="n">
         <v>0</v>
       </c>
       <c r="DW14" t="n">
-        <v>0.01701140386781293</v>
+        <v>-0.07777727516968662</v>
       </c>
       <c r="DX14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY14" t="n">
         <v>0</v>
       </c>
       <c r="DZ14" t="n">
-        <v>-0.01112770514042355</v>
+        <v>-0.02959441468166746</v>
       </c>
       <c r="EA14" t="n">
-        <v>-0.06119792978138122</v>
+        <v>-0.07574349818772393</v>
       </c>
       <c r="EB14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED14" t="n">
         <v>-0</v>
@@ -8237,25 +8237,25 @@
         <v>0</v>
       </c>
       <c r="EF14" t="n">
-        <v>-0.20371944120369</v>
+        <v>-0.05109372526325343</v>
       </c>
       <c r="EG14" t="n">
         <v>0</v>
       </c>
       <c r="EH14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI14" t="n">
-        <v>0.08280467322635884</v>
+        <v>0.03547122038128789</v>
       </c>
       <c r="EJ14" t="n">
-        <v>-0.05180395699153726</v>
+        <v>0.01696104452855</v>
       </c>
       <c r="EK14" t="n">
         <v>0</v>
       </c>
       <c r="EL14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM14" t="n">
         <v>0</v>
@@ -8264,7 +8264,7 @@
         <v>-0</v>
       </c>
       <c r="EO14" t="n">
-        <v>-0.04558842333728716</v>
+        <v>0.004630800288238325</v>
       </c>
       <c r="EP14" t="n">
         <v>0</v>
@@ -8273,16 +8273,16 @@
         <v>-0</v>
       </c>
       <c r="ER14" t="n">
-        <v>-0.06197592734988849</v>
+        <v>0.04292069272040559</v>
       </c>
       <c r="ES14" t="n">
-        <v>-0.04800104277683427</v>
+        <v>-0.005501907464312109</v>
       </c>
       <c r="ET14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV14" t="n">
         <v>0</v>
@@ -8291,7 +8291,7 @@
         <v>-0</v>
       </c>
       <c r="EX14" t="n">
-        <v>-0.1030626547926596</v>
+        <v>-0.03272245199866606</v>
       </c>
       <c r="EY14" t="n">
         <v>0</v>
@@ -8300,10 +8300,10 @@
         <v>-0</v>
       </c>
       <c r="FA14" t="n">
-        <v>0.0396966135668135</v>
+        <v>-0.009908774641307407</v>
       </c>
       <c r="FB14" t="n">
-        <v>-0.06677664245395208</v>
+        <v>-0.04678307006786014</v>
       </c>
       <c r="FC14" t="n">
         <v>0</v>
@@ -8315,22 +8315,22 @@
         <v>0</v>
       </c>
       <c r="FF14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG14" t="n">
-        <v>0.1012263041102582</v>
+        <v>-0.03680595171142252</v>
       </c>
       <c r="FH14" t="n">
         <v>0</v>
       </c>
       <c r="FI14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ14" t="n">
-        <v>0.118658399699421</v>
+        <v>0.02242446753442422</v>
       </c>
       <c r="FK14" t="n">
-        <v>0.05571007438585151</v>
+        <v>-0.1962660321363101</v>
       </c>
       <c r="FL14" t="n">
         <v>0</v>
@@ -8345,22 +8345,22 @@
         <v>-0</v>
       </c>
       <c r="FP14" t="n">
-        <v>-0.03397564666268214</v>
+        <v>0.008351763273811654</v>
       </c>
       <c r="FQ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS14" t="n">
-        <v>0.0690464131599373</v>
+        <v>-0.005768158845092641</v>
       </c>
       <c r="FT14" t="n">
-        <v>-0.01077656490147513</v>
+        <v>0.07394564231949566</v>
       </c>
       <c r="FU14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV14" t="n">
         <v>0</v>
@@ -8369,10 +8369,10 @@
         <v>0</v>
       </c>
       <c r="FX14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FY14" t="n">
-        <v>0.08769555893912387</v>
+        <v>0.03694643230828373</v>
       </c>
       <c r="FZ14" t="n">
         <v>0</v>
@@ -8381,7 +8381,7 @@
         <v>-0</v>
       </c>
       <c r="GB14" t="n">
-        <v>0.04024406798580486</v>
+        <v>-0.05893067217737761</v>
       </c>
       <c r="GC14" t="n">
         <v>0</v>
@@ -8390,21 +8390,21 @@
         <v>-0</v>
       </c>
       <c r="GE14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF14" t="n">
         <v>0</v>
       </c>
       <c r="GG14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -8428,10 +8428,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -8455,10 +8455,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -8482,10 +8482,10 @@
         <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -8509,10 +8509,10 @@
         <v>0</v>
       </c>
       <c r="AK15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM15" t="n">
         <v>0</v>
@@ -8536,10 +8536,10 @@
         <v>0</v>
       </c>
       <c r="AT15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV15" t="n">
         <v>0</v>
@@ -8563,10 +8563,10 @@
         <v>0</v>
       </c>
       <c r="BC15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE15" t="n">
         <v>0</v>
@@ -8590,10 +8590,10 @@
         <v>0</v>
       </c>
       <c r="BL15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN15" t="n">
         <v>0</v>
@@ -8617,10 +8617,10 @@
         <v>0</v>
       </c>
       <c r="BU15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW15" t="n">
         <v>0</v>
@@ -8644,10 +8644,10 @@
         <v>0</v>
       </c>
       <c r="CD15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF15" t="n">
         <v>0</v>
@@ -8671,10 +8671,10 @@
         <v>0</v>
       </c>
       <c r="CM15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO15" t="n">
         <v>0</v>
@@ -8725,10 +8725,10 @@
         <v>0</v>
       </c>
       <c r="DE15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG15" t="n">
         <v>0</v>
@@ -8752,10 +8752,10 @@
         <v>0</v>
       </c>
       <c r="DN15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP15" t="n">
         <v>0</v>
@@ -8779,10 +8779,10 @@
         <v>0</v>
       </c>
       <c r="DW15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY15" t="n">
         <v>0</v>
@@ -8806,10 +8806,10 @@
         <v>0</v>
       </c>
       <c r="EF15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH15" t="n">
         <v>0</v>
@@ -8833,10 +8833,10 @@
         <v>0</v>
       </c>
       <c r="EO15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ15" t="n">
         <v>0</v>
@@ -8860,10 +8860,10 @@
         <v>0</v>
       </c>
       <c r="EX15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ15" t="n">
         <v>0</v>
@@ -8970,10 +8970,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -8997,10 +8997,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -9024,10 +9024,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -9051,10 +9051,10 @@
         <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -9078,10 +9078,10 @@
         <v>0</v>
       </c>
       <c r="AK16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM16" t="n">
         <v>0</v>
@@ -9105,10 +9105,10 @@
         <v>0</v>
       </c>
       <c r="AT16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV16" t="n">
         <v>0</v>
@@ -9132,10 +9132,10 @@
         <v>0</v>
       </c>
       <c r="BC16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE16" t="n">
         <v>0</v>
@@ -9159,10 +9159,10 @@
         <v>0</v>
       </c>
       <c r="BL16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN16" t="n">
         <v>0</v>
@@ -9186,10 +9186,10 @@
         <v>0</v>
       </c>
       <c r="BU16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW16" t="n">
         <v>0</v>
@@ -9213,10 +9213,10 @@
         <v>0</v>
       </c>
       <c r="CD16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF16" t="n">
         <v>0</v>
@@ -9240,10 +9240,10 @@
         <v>0</v>
       </c>
       <c r="CM16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO16" t="n">
         <v>0</v>
@@ -9294,10 +9294,10 @@
         <v>0</v>
       </c>
       <c r="DE16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG16" t="n">
         <v>0</v>
@@ -9321,10 +9321,10 @@
         <v>0</v>
       </c>
       <c r="DN16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP16" t="n">
         <v>0</v>
@@ -9348,10 +9348,10 @@
         <v>0</v>
       </c>
       <c r="DW16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY16" t="n">
         <v>0</v>
@@ -9375,10 +9375,10 @@
         <v>0</v>
       </c>
       <c r="EF16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH16" t="n">
         <v>0</v>
@@ -9402,10 +9402,10 @@
         <v>0</v>
       </c>
       <c r="EO16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ16" t="n">
         <v>0</v>
@@ -9429,10 +9429,10 @@
         <v>0</v>
       </c>
       <c r="EX16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ16" t="n">
         <v>0</v>
@@ -9539,106 +9539,106 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.1825955731435263</v>
+        <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>-0</v>
+        <v>0.7065178604482224</v>
       </c>
       <c r="C17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-0.3251142847225449</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.05410672972060805</v>
+        <v>-0.04111540132472373</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03019410934899581</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1648144629633078</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>-0</v>
+        <v>0.5037354850863311</v>
       </c>
       <c r="L17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>-0.3681903566895708</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.09330809565133932</v>
+        <v>-0.06251627781253863</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0.005309342225045123</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0.0006284312540021508</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>0.1429025858524632</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-0.005480828142311104</v>
       </c>
       <c r="W17" t="n">
-        <v>-0.04842109370525909</v>
+        <v>0.1705670371893918</v>
       </c>
       <c r="X17" t="n">
         <v>-0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-0.05715724789388611</v>
+        <v>-0</v>
       </c>
       <c r="Z17" t="n">
         <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.0220301302169454</v>
+        <v>-0</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0</v>
+        <v>0.08339421472717569</v>
       </c>
       <c r="AD17" t="n">
         <v>-0</v>
       </c>
       <c r="AE17" t="n">
-        <v>-0</v>
+        <v>0.01957105448551286</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.01783314055487331</v>
+        <v>-0.0884313639750423</v>
       </c>
       <c r="AG17" t="n">
         <v>0</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.03899765145916918</v>
+        <v>-0</v>
       </c>
       <c r="AI17" t="n">
         <v>0</v>
@@ -9647,214 +9647,214 @@
         <v>-0</v>
       </c>
       <c r="AK17" t="n">
-        <v>0.03759595853882296</v>
+        <v>0</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>-0.0004323416157562067</v>
       </c>
       <c r="AM17" t="n">
         <v>-0</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>-0.08268058673765899</v>
       </c>
       <c r="AO17" t="n">
-        <v>-0.01855135798787228</v>
+        <v>-0.01241979546189361</v>
       </c>
       <c r="AP17" t="n">
         <v>0</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.01009142516935986</v>
+        <v>-0</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.08028672784795723</v>
+        <v>0</v>
       </c>
       <c r="AU17" t="n">
-        <v>0</v>
+        <v>0.4439040117196943</v>
       </c>
       <c r="AV17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW17" t="n">
-        <v>-0</v>
+        <v>0.03421995425815551</v>
       </c>
       <c r="AX17" t="n">
-        <v>0.002444893484138042</v>
+        <v>0.1507905290759396</v>
       </c>
       <c r="AY17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ17" t="n">
-        <v>0.009838605499106428</v>
+        <v>0</v>
       </c>
       <c r="BA17" t="n">
         <v>-0</v>
       </c>
       <c r="BB17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC17" t="n">
-        <v>0.04068586018441413</v>
+        <v>-0</v>
       </c>
       <c r="BD17" t="n">
-        <v>0</v>
+        <v>0.09882878396016453</v>
       </c>
       <c r="BE17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF17" t="n">
-        <v>0</v>
+        <v>-0.2640365586448582</v>
       </c>
       <c r="BG17" t="n">
-        <v>-0.02332165759777687</v>
+        <v>-0.209210938208003</v>
       </c>
       <c r="BH17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI17" t="n">
-        <v>0.02035042619933313</v>
+        <v>0</v>
       </c>
       <c r="BJ17" t="n">
         <v>0</v>
       </c>
       <c r="BK17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL17" t="n">
-        <v>-0.02739706633559892</v>
+        <v>-0</v>
       </c>
       <c r="BM17" t="n">
-        <v>0</v>
+        <v>0.1657072666352129</v>
       </c>
       <c r="BN17" t="n">
         <v>0</v>
       </c>
       <c r="BO17" t="n">
-        <v>0</v>
+        <v>0.01435782810858063</v>
       </c>
       <c r="BP17" t="n">
-        <v>0.05605819277977281</v>
+        <v>0.2456606896474722</v>
       </c>
       <c r="BQ17" t="n">
         <v>-0</v>
       </c>
       <c r="BR17" t="n">
-        <v>0.01281546881043148</v>
+        <v>0</v>
       </c>
       <c r="BS17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT17" t="n">
         <v>-0</v>
       </c>
       <c r="BU17" t="n">
-        <v>0.06920823418004467</v>
+        <v>0</v>
       </c>
       <c r="BV17" t="n">
-        <v>0</v>
+        <v>0.2606967032568218</v>
       </c>
       <c r="BW17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX17" t="n">
-        <v>0</v>
+        <v>0.04805953394859109</v>
       </c>
       <c r="BY17" t="n">
-        <v>-0.02175483569643659</v>
+        <v>0.1480353059352174</v>
       </c>
       <c r="BZ17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA17" t="n">
-        <v>0.0124883515746474</v>
+        <v>-0</v>
       </c>
       <c r="CB17" t="n">
         <v>-0</v>
       </c>
       <c r="CC17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD17" t="n">
-        <v>-0.04795041483128162</v>
+        <v>-0</v>
       </c>
       <c r="CE17" t="n">
-        <v>0</v>
+        <v>-0.1406986329679999</v>
       </c>
       <c r="CF17" t="n">
         <v>0</v>
       </c>
       <c r="CG17" t="n">
-        <v>-0</v>
+        <v>0.01008480351141594</v>
       </c>
       <c r="CH17" t="n">
-        <v>0.01849213515363832</v>
+        <v>-0.02705904532105713</v>
       </c>
       <c r="CI17" t="n">
         <v>-0</v>
       </c>
       <c r="CJ17" t="n">
-        <v>-0.01169952513384386</v>
+        <v>0</v>
       </c>
       <c r="CK17" t="n">
         <v>0</v>
       </c>
       <c r="CL17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM17" t="n">
-        <v>-0.007134461012714209</v>
+        <v>0</v>
       </c>
       <c r="CN17" t="n">
-        <v>-0</v>
+        <v>-0.03216659555159981</v>
       </c>
       <c r="CO17" t="n">
         <v>-0</v>
       </c>
       <c r="CP17" t="n">
-        <v>-0</v>
+        <v>-0.2869574122163829</v>
       </c>
       <c r="CQ17" t="n">
-        <v>-0.01841813312632879</v>
+        <v>-0.1411724751987646</v>
       </c>
       <c r="CR17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS17" t="n">
-        <v>-0.03222691476484903</v>
+        <v>-0</v>
       </c>
       <c r="CT17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU17" t="n">
         <v>0</v>
       </c>
       <c r="CV17" t="n">
-        <v>-0.04301457389680302</v>
+        <v>0</v>
       </c>
       <c r="CW17" t="n">
-        <v>-0</v>
+        <v>-0.1026822483072986</v>
       </c>
       <c r="CX17" t="n">
         <v>-0</v>
       </c>
       <c r="CY17" t="n">
-        <v>0</v>
+        <v>0.05992378437185925</v>
       </c>
       <c r="CZ17" t="n">
-        <v>0.006219749427036015</v>
+        <v>-0.04180779933237944</v>
       </c>
       <c r="DA17" t="n">
         <v>0</v>
       </c>
       <c r="DB17" t="n">
-        <v>-0.0064112828812382</v>
+        <v>0</v>
       </c>
       <c r="DC17" t="n">
         <v>-0</v>
@@ -9863,25 +9863,25 @@
         <v>0</v>
       </c>
       <c r="DE17" t="n">
-        <v>-0.0007690835294465024</v>
+        <v>0</v>
       </c>
       <c r="DF17" t="n">
-        <v>0</v>
+        <v>-0.03589188773824366</v>
       </c>
       <c r="DG17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH17" t="n">
-        <v>0</v>
+        <v>0.1093258869418087</v>
       </c>
       <c r="DI17" t="n">
-        <v>-0.01522063378413403</v>
+        <v>0.01443463975870397</v>
       </c>
       <c r="DJ17" t="n">
         <v>-0</v>
       </c>
       <c r="DK17" t="n">
-        <v>-0.003383678937113189</v>
+        <v>-0</v>
       </c>
       <c r="DL17" t="n">
         <v>0</v>
@@ -9890,79 +9890,79 @@
         <v>0</v>
       </c>
       <c r="DN17" t="n">
-        <v>0.01165230516796017</v>
+        <v>-0</v>
       </c>
       <c r="DO17" t="n">
-        <v>0</v>
+        <v>-0.07713718915759761</v>
       </c>
       <c r="DP17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ17" t="n">
-        <v>0</v>
+        <v>-0.007024938210041608</v>
       </c>
       <c r="DR17" t="n">
-        <v>-0.01152871672468068</v>
+        <v>-0.06419543250611555</v>
       </c>
       <c r="DS17" t="n">
         <v>0</v>
       </c>
       <c r="DT17" t="n">
-        <v>0.03894960411559333</v>
+        <v>-0</v>
       </c>
       <c r="DU17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV17" t="n">
         <v>0</v>
       </c>
       <c r="DW17" t="n">
-        <v>-0.009698800818396696</v>
+        <v>-0</v>
       </c>
       <c r="DX17" t="n">
-        <v>-0</v>
+        <v>-0.06422371405277154</v>
       </c>
       <c r="DY17" t="n">
         <v>0</v>
       </c>
       <c r="DZ17" t="n">
-        <v>-0</v>
+        <v>-0.03961216787784566</v>
       </c>
       <c r="EA17" t="n">
-        <v>-0.001880803185120667</v>
+        <v>-0.05366945409950179</v>
       </c>
       <c r="EB17" t="n">
         <v>-0</v>
       </c>
       <c r="EC17" t="n">
-        <v>0.002158947529233192</v>
+        <v>-0</v>
       </c>
       <c r="ED17" t="n">
         <v>-0</v>
       </c>
       <c r="EE17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF17" t="n">
-        <v>-0.07216617709906356</v>
+        <v>0</v>
       </c>
       <c r="EG17" t="n">
-        <v>0</v>
+        <v>-0.1190824573759829</v>
       </c>
       <c r="EH17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI17" t="n">
-        <v>-0</v>
+        <v>-0.004533356327923561</v>
       </c>
       <c r="EJ17" t="n">
-        <v>0.01073798716298123</v>
+        <v>0.1010724192287575</v>
       </c>
       <c r="EK17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL17" t="n">
-        <v>-0.02620868707157794</v>
+        <v>-0</v>
       </c>
       <c r="EM17" t="n">
         <v>0</v>
@@ -9971,25 +9971,25 @@
         <v>-0</v>
       </c>
       <c r="EO17" t="n">
-        <v>-0.006538114022181077</v>
+        <v>0</v>
       </c>
       <c r="EP17" t="n">
-        <v>0</v>
+        <v>-0.001357583644309067</v>
       </c>
       <c r="EQ17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER17" t="n">
-        <v>0</v>
+        <v>0.01323821563639857</v>
       </c>
       <c r="ES17" t="n">
-        <v>0.04858836744957449</v>
+        <v>0.0203614326946022</v>
       </c>
       <c r="ET17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU17" t="n">
-        <v>0.01106779752045846</v>
+        <v>0</v>
       </c>
       <c r="EV17" t="n">
         <v>0</v>
@@ -9998,132 +9998,132 @@
         <v>-0</v>
       </c>
       <c r="EX17" t="n">
-        <v>-0.04091556875640467</v>
+        <v>-0</v>
       </c>
       <c r="EY17" t="n">
-        <v>0</v>
+        <v>-0.09999088069364616</v>
       </c>
       <c r="EZ17" t="n">
         <v>0</v>
       </c>
       <c r="FA17" t="n">
-        <v>-0</v>
+        <v>0.001908397541044842</v>
       </c>
       <c r="FB17" t="n">
-        <v>0.007119515819588636</v>
+        <v>-0.0007734146704566939</v>
       </c>
       <c r="FC17" t="n">
         <v>-0</v>
       </c>
       <c r="FD17" t="n">
-        <v>-0.008124772153641959</v>
+        <v>-0</v>
       </c>
       <c r="FE17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG17" t="n">
-        <v>0.0500646175057377</v>
+        <v>0</v>
       </c>
       <c r="FH17" t="n">
-        <v>0</v>
+        <v>0.007671948013946907</v>
       </c>
       <c r="FI17" t="n">
         <v>-0</v>
       </c>
       <c r="FJ17" t="n">
-        <v>-0</v>
+        <v>0.03342994177197955</v>
       </c>
       <c r="FK17" t="n">
-        <v>0.007776253473480123</v>
+        <v>-0.004077968148340804</v>
       </c>
       <c r="FL17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM17" t="n">
-        <v>0.01062118580076394</v>
+        <v>0</v>
       </c>
       <c r="FN17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP17" t="n">
-        <v>0.01447739323442278</v>
+        <v>0</v>
       </c>
       <c r="FQ17" t="n">
-        <v>0</v>
+        <v>-0.04114280749045465</v>
       </c>
       <c r="FR17" t="n">
         <v>0</v>
       </c>
       <c r="FS17" t="n">
-        <v>-0</v>
+        <v>3.913080121260596e-05</v>
       </c>
       <c r="FT17" t="n">
-        <v>-0.003312342879126147</v>
+        <v>-0.04632459381955821</v>
       </c>
       <c r="FU17" t="n">
         <v>-0</v>
       </c>
       <c r="FV17" t="n">
-        <v>0.0069844468353881</v>
+        <v>-0</v>
       </c>
       <c r="FW17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX17" t="n">
         <v>0</v>
       </c>
       <c r="FY17" t="n">
-        <v>0.02551399665135908</v>
+        <v>-0</v>
       </c>
       <c r="FZ17" t="n">
-        <v>0</v>
+        <v>0.08546176442438072</v>
       </c>
       <c r="GA17" t="n">
         <v>-0</v>
       </c>
       <c r="GB17" t="n">
-        <v>0</v>
+        <v>-0.1374859100864664</v>
       </c>
       <c r="GC17" t="n">
         <v>-0</v>
       </c>
       <c r="GD17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE17" t="n">
-        <v>0.0200410434041494</v>
+        <v>-0</v>
       </c>
       <c r="GF17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.416283264271319</v>
+        <v>-0</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>-0.5619917000709082</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7502915114442089</v>
+        <v>-0</v>
       </c>
       <c r="D18" t="n">
         <v>-0</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.1162560267430601</v>
+        <v>0.1530472642227293</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.9362792605459417</v>
       </c>
       <c r="G18" t="n">
         <v>-0</v>
@@ -10132,25 +10132,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.3765236832461719</v>
+        <v>-0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>-0.4767687871084273</v>
       </c>
       <c r="L18" t="n">
-        <v>0.8253474291028134</v>
+        <v>-0</v>
       </c>
       <c r="M18" t="n">
         <v>-0</v>
       </c>
       <c r="N18" t="n">
-        <v>0.144818479659744</v>
+        <v>0.04122978365678961</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>0.8433122972362085</v>
       </c>
       <c r="P18" t="n">
         <v>-0</v>
@@ -10162,184 +10162,184 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>-0.04528462228556608</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>-0.0475432154337135</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09182857870961039</v>
+        <v>-0</v>
       </c>
       <c r="V18" t="n">
         <v>-0</v>
       </c>
       <c r="W18" t="n">
-        <v>0.09810272548920478</v>
+        <v>0.2050281532278205</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>0.09907608554540934</v>
       </c>
       <c r="Y18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.05106460670086742</v>
+        <v>0</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>0.002977187000966503</v>
       </c>
       <c r="AD18" t="n">
-        <v>-0.01687252385875355</v>
+        <v>-0</v>
       </c>
       <c r="AE18" t="n">
         <v>-0</v>
       </c>
       <c r="AF18" t="n">
-        <v>-0.0123430423606114</v>
+        <v>0.06726947787242823</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>0.08177119161255048</v>
       </c>
       <c r="AH18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK18" t="n">
-        <v>-0.0936117534309255</v>
+        <v>-0</v>
       </c>
       <c r="AL18" t="n">
-        <v>-0</v>
+        <v>-0.05516718054966616</v>
       </c>
       <c r="AM18" t="n">
-        <v>0.1077412423873639</v>
+        <v>0</v>
       </c>
       <c r="AN18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO18" t="n">
-        <v>0.03968185037463624</v>
+        <v>0.04480939744564025</v>
       </c>
       <c r="AP18" t="n">
-        <v>0</v>
+        <v>0.1585567645630519</v>
       </c>
       <c r="AQ18" t="n">
         <v>0</v>
       </c>
       <c r="AR18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS18" t="n">
         <v>-0</v>
       </c>
       <c r="AT18" t="n">
-        <v>-0.06207781493971161</v>
+        <v>0</v>
       </c>
       <c r="AU18" t="n">
-        <v>-0</v>
+        <v>-0.1148510245735235</v>
       </c>
       <c r="AV18" t="n">
-        <v>0.3000147199894535</v>
+        <v>0</v>
       </c>
       <c r="AW18" t="n">
         <v>-0</v>
       </c>
       <c r="AX18" t="n">
-        <v>0.0699704496234184</v>
+        <v>0.183036517048427</v>
       </c>
       <c r="AY18" t="n">
-        <v>-0</v>
+        <v>0.5286702026406493</v>
       </c>
       <c r="AZ18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA18" t="n">
         <v>0</v>
       </c>
       <c r="BB18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC18" t="n">
-        <v>-0.07159029644043043</v>
+        <v>0</v>
       </c>
       <c r="BD18" t="n">
-        <v>0</v>
+        <v>-0.2315018471534227</v>
       </c>
       <c r="BE18" t="n">
-        <v>0.212109835668422</v>
+        <v>-0</v>
       </c>
       <c r="BF18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG18" t="n">
-        <v>-0.2346507994326474</v>
+        <v>0.04568663868520217</v>
       </c>
       <c r="BH18" t="n">
-        <v>0</v>
+        <v>0.1582085733549655</v>
       </c>
       <c r="BI18" t="n">
         <v>-0</v>
       </c>
       <c r="BJ18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BK18" t="n">
         <v>0</v>
       </c>
       <c r="BL18" t="n">
-        <v>0.06216584622641199</v>
+        <v>0</v>
       </c>
       <c r="BM18" t="n">
-        <v>-0</v>
+        <v>-0.2294522057584735</v>
       </c>
       <c r="BN18" t="n">
-        <v>-0.1474585822474941</v>
+        <v>0</v>
       </c>
       <c r="BO18" t="n">
         <v>-0</v>
       </c>
       <c r="BP18" t="n">
-        <v>-0.2282973259088825</v>
+        <v>-0.1167199057440235</v>
       </c>
       <c r="BQ18" t="n">
-        <v>0</v>
+        <v>-0.05162159786543732</v>
       </c>
       <c r="BR18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS18" t="n">
         <v>-0</v>
       </c>
       <c r="BT18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU18" t="n">
-        <v>-0.238454310221963</v>
+        <v>-0</v>
       </c>
       <c r="BV18" t="n">
-        <v>-0</v>
+        <v>-0.2825745575205455</v>
       </c>
       <c r="BW18" t="n">
-        <v>0.1940952536424159</v>
+        <v>0</v>
       </c>
       <c r="BX18" t="n">
         <v>-0</v>
       </c>
       <c r="BY18" t="n">
-        <v>-0.09274215964157762</v>
+        <v>0.1364092284791431</v>
       </c>
       <c r="BZ18" t="n">
-        <v>0</v>
+        <v>0.2900536719343655</v>
       </c>
       <c r="CA18" t="n">
         <v>0</v>
@@ -10351,22 +10351,22 @@
         <v>0</v>
       </c>
       <c r="CD18" t="n">
-        <v>0.1106362902023702</v>
+        <v>-0</v>
       </c>
       <c r="CE18" t="n">
-        <v>-0</v>
+        <v>0.1294144681169203</v>
       </c>
       <c r="CF18" t="n">
-        <v>-0.1671647067810627</v>
+        <v>-0</v>
       </c>
       <c r="CG18" t="n">
         <v>0</v>
       </c>
       <c r="CH18" t="n">
-        <v>-0.02422441342143098</v>
+        <v>-0.04348271720928615</v>
       </c>
       <c r="CI18" t="n">
-        <v>-0</v>
+        <v>-0.1900627142028209</v>
       </c>
       <c r="CJ18" t="n">
         <v>0</v>
@@ -10378,25 +10378,25 @@
         <v>-0</v>
       </c>
       <c r="CM18" t="n">
-        <v>-0.008078505977626306</v>
+        <v>-0</v>
       </c>
       <c r="CN18" t="n">
-        <v>-0</v>
+        <v>0.02601519506793283</v>
       </c>
       <c r="CO18" t="n">
-        <v>0.06643369594903978</v>
+        <v>-0</v>
       </c>
       <c r="CP18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ18" t="n">
-        <v>0.1986471729456656</v>
+        <v>-0.1410933516439072</v>
       </c>
       <c r="CR18" t="n">
-        <v>0</v>
+        <v>0.05349129152857736</v>
       </c>
       <c r="CS18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT18" t="n">
         <v>0</v>
@@ -10405,22 +10405,22 @@
         <v>0</v>
       </c>
       <c r="CV18" t="n">
-        <v>0.1033513331192741</v>
+        <v>0</v>
       </c>
       <c r="CW18" t="n">
-        <v>0</v>
+        <v>0.09015077542634586</v>
       </c>
       <c r="CX18" t="n">
-        <v>-0.1530072477625989</v>
+        <v>0</v>
       </c>
       <c r="CY18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CZ18" t="n">
-        <v>0.05562478564441686</v>
+        <v>-0.03522689207834725</v>
       </c>
       <c r="DA18" t="n">
-        <v>0</v>
+        <v>-0.1847526977996348</v>
       </c>
       <c r="DB18" t="n">
         <v>-0</v>
@@ -10429,133 +10429,133 @@
         <v>0</v>
       </c>
       <c r="DD18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE18" t="n">
-        <v>0.01009341672466257</v>
+        <v>-0</v>
       </c>
       <c r="DF18" t="n">
-        <v>-0</v>
+        <v>0.0655835721812028</v>
       </c>
       <c r="DG18" t="n">
-        <v>-0.05629860088692092</v>
+        <v>0</v>
       </c>
       <c r="DH18" t="n">
         <v>0</v>
       </c>
       <c r="DI18" t="n">
-        <v>-0.1097505837170587</v>
+        <v>-0.1113462793900101</v>
       </c>
       <c r="DJ18" t="n">
-        <v>0</v>
+        <v>-0.002143905054196045</v>
       </c>
       <c r="DK18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL18" t="n">
         <v>-0</v>
       </c>
       <c r="DM18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN18" t="n">
-        <v>-0.002439697741051666</v>
+        <v>0</v>
       </c>
       <c r="DO18" t="n">
-        <v>-0</v>
+        <v>0.04633259607907098</v>
       </c>
       <c r="DP18" t="n">
-        <v>0.02585445474267881</v>
+        <v>-0</v>
       </c>
       <c r="DQ18" t="n">
         <v>-0</v>
       </c>
       <c r="DR18" t="n">
-        <v>-0.09295756218692648</v>
+        <v>-0.1013827511756108</v>
       </c>
       <c r="DS18" t="n">
-        <v>0</v>
+        <v>0.01532740530663834</v>
       </c>
       <c r="DT18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU18" t="n">
         <v>-0</v>
       </c>
       <c r="DV18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW18" t="n">
-        <v>0.0435970272686654</v>
+        <v>-0</v>
       </c>
       <c r="DX18" t="n">
-        <v>0</v>
+        <v>0.1090447202370523</v>
       </c>
       <c r="DY18" t="n">
-        <v>0.01726365633716621</v>
+        <v>-0</v>
       </c>
       <c r="DZ18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EA18" t="n">
-        <v>0.008980204711950933</v>
+        <v>-0.05455194501742738</v>
       </c>
       <c r="EB18" t="n">
-        <v>-0</v>
+        <v>-0.1630909021609638</v>
       </c>
       <c r="EC18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE18" t="n">
         <v>-0</v>
       </c>
       <c r="EF18" t="n">
-        <v>0.1757549051731202</v>
+        <v>-0</v>
       </c>
       <c r="EG18" t="n">
-        <v>-0</v>
+        <v>0.08762073590193339</v>
       </c>
       <c r="EH18" t="n">
-        <v>-0.1825935860541808</v>
+        <v>-0</v>
       </c>
       <c r="EI18" t="n">
         <v>-0</v>
       </c>
       <c r="EJ18" t="n">
-        <v>0.002199060620198539</v>
+        <v>-0.05289292561205562</v>
       </c>
       <c r="EK18" t="n">
-        <v>-0</v>
+        <v>-0.1737878300676208</v>
       </c>
       <c r="EL18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EN18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO18" t="n">
-        <v>0.04244734286583226</v>
+        <v>-0</v>
       </c>
       <c r="EP18" t="n">
-        <v>-0</v>
+        <v>0.02486131961238406</v>
       </c>
       <c r="EQ18" t="n">
-        <v>-0.07029588291307173</v>
+        <v>0</v>
       </c>
       <c r="ER18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES18" t="n">
-        <v>0.06907002018585957</v>
+        <v>-0.04217865694211088</v>
       </c>
       <c r="ET18" t="n">
-        <v>0</v>
+        <v>-0.03967402906449406</v>
       </c>
       <c r="EU18" t="n">
         <v>0</v>
@@ -10564,25 +10564,25 @@
         <v>-0</v>
       </c>
       <c r="EW18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX18" t="n">
-        <v>0.1136905254963703</v>
+        <v>-0</v>
       </c>
       <c r="EY18" t="n">
-        <v>-0</v>
+        <v>0.07601944216487953</v>
       </c>
       <c r="EZ18" t="n">
-        <v>-0.1547906940325754</v>
+        <v>-0</v>
       </c>
       <c r="FA18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB18" t="n">
-        <v>0.04096269399150607</v>
+        <v>-0.07794920266017073</v>
       </c>
       <c r="FC18" t="n">
-        <v>-0</v>
+        <v>-0.1869361903526315</v>
       </c>
       <c r="FD18" t="n">
         <v>0</v>
@@ -10591,55 +10591,55 @@
         <v>-0</v>
       </c>
       <c r="FF18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG18" t="n">
-        <v>-0.06124601479133053</v>
+        <v>-0</v>
       </c>
       <c r="FH18" t="n">
-        <v>-0</v>
+        <v>-0.002895793637364487</v>
       </c>
       <c r="FI18" t="n">
-        <v>-0.1661185434987039</v>
+        <v>-0</v>
       </c>
       <c r="FJ18" t="n">
         <v>0</v>
       </c>
       <c r="FK18" t="n">
-        <v>-0.05545772367849596</v>
+        <v>0.01024344760432382</v>
       </c>
       <c r="FL18" t="n">
-        <v>-0</v>
+        <v>-0.07917485854407756</v>
       </c>
       <c r="FM18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FN18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO18" t="n">
         <v>-0</v>
       </c>
       <c r="FP18" t="n">
-        <v>0.01084044716154989</v>
+        <v>-0</v>
       </c>
       <c r="FQ18" t="n">
-        <v>-0</v>
+        <v>0.01301892063392341</v>
       </c>
       <c r="FR18" t="n">
-        <v>-0.1100844942906201</v>
+        <v>0</v>
       </c>
       <c r="FS18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT18" t="n">
-        <v>-0.01921627742248665</v>
+        <v>0.1341425293712213</v>
       </c>
       <c r="FU18" t="n">
-        <v>-0</v>
+        <v>-0.08341851681517694</v>
       </c>
       <c r="FV18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW18" t="n">
         <v>0</v>
@@ -10648,31 +10648,31 @@
         <v>-0</v>
       </c>
       <c r="FY18" t="n">
-        <v>-0.05218101693787622</v>
+        <v>0</v>
       </c>
       <c r="FZ18" t="n">
-        <v>-0</v>
+        <v>-0.08249638631278741</v>
       </c>
       <c r="GA18" t="n">
-        <v>0.1025658196442117</v>
+        <v>0</v>
       </c>
       <c r="GB18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GC18" t="n">
         <v>-0</v>
       </c>
       <c r="GD18" t="n">
-        <v>0</v>
+        <v>0.06682642202701633</v>
       </c>
       <c r="GE18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF18" t="n">
         <v>0</v>
       </c>
       <c r="GG18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="19">
@@ -10680,10 +10680,10 @@
         <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -10707,10 +10707,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -10734,10 +10734,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -10761,10 +10761,10 @@
         <v>0</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE19" t="n">
         <v>0</v>
@@ -10788,10 +10788,10 @@
         <v>0</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN19" t="n">
         <v>0</v>
@@ -10815,10 +10815,10 @@
         <v>0</v>
       </c>
       <c r="AU19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW19" t="n">
         <v>0</v>
@@ -10842,10 +10842,10 @@
         <v>0</v>
       </c>
       <c r="BD19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF19" t="n">
         <v>0</v>
@@ -10869,10 +10869,10 @@
         <v>0</v>
       </c>
       <c r="BM19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO19" t="n">
         <v>0</v>
@@ -10896,10 +10896,10 @@
         <v>0</v>
       </c>
       <c r="BV19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX19" t="n">
         <v>0</v>
@@ -10923,10 +10923,10 @@
         <v>0</v>
       </c>
       <c r="CE19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG19" t="n">
         <v>0</v>
@@ -10950,10 +10950,10 @@
         <v>0</v>
       </c>
       <c r="CN19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP19" t="n">
         <v>0</v>
@@ -11004,10 +11004,10 @@
         <v>0</v>
       </c>
       <c r="DF19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH19" t="n">
         <v>0</v>
@@ -11058,10 +11058,10 @@
         <v>0</v>
       </c>
       <c r="DX19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ19" t="n">
         <v>0</v>
@@ -11085,10 +11085,10 @@
         <v>0</v>
       </c>
       <c r="EG19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI19" t="n">
         <v>0</v>
@@ -11112,10 +11112,10 @@
         <v>0</v>
       </c>
       <c r="EP19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER19" t="n">
         <v>0</v>
@@ -11139,10 +11139,10 @@
         <v>0</v>
       </c>
       <c r="EY19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA19" t="n">
         <v>0</v>
@@ -11166,10 +11166,10 @@
         <v>0</v>
       </c>
       <c r="FH19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FJ19" t="n">
         <v>0</v>
@@ -11193,10 +11193,10 @@
         <v>0</v>
       </c>
       <c r="FQ19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS19" t="n">
         <v>0</v>
